--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4694.90291834385</v>
+        <v>4910.566521030345</v>
       </c>
       <c r="AB2" t="n">
-        <v>6423.773297377067</v>
+        <v>6718.853752979403</v>
       </c>
       <c r="AC2" t="n">
-        <v>5810.697389697604</v>
+        <v>6077.615780765264</v>
       </c>
       <c r="AD2" t="n">
-        <v>4694902.918343849</v>
+        <v>4910566.521030345</v>
       </c>
       <c r="AE2" t="n">
-        <v>6423773.297377067</v>
+        <v>6718853.752979403</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.201371951941282e-07</v>
+        <v>8.940297262447769e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.01041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5810697.389697604</v>
+        <v>6077615.780765264</v>
       </c>
     </row>
     <row r="3">
@@ -6658,28 +6658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2217.98227270883</v>
+        <v>2356.030816581995</v>
       </c>
       <c r="AB3" t="n">
-        <v>3034.741195992328</v>
+        <v>3223.625303991528</v>
       </c>
       <c r="AC3" t="n">
-        <v>2745.109755532725</v>
+        <v>2915.967029364985</v>
       </c>
       <c r="AD3" t="n">
-        <v>2217982.27270883</v>
+        <v>2356030.816581995</v>
       </c>
       <c r="AE3" t="n">
-        <v>3034741.195992328</v>
+        <v>3223625.303991528</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866922431212807e-07</v>
+        <v>1.422479094693586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.80403645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2745109.755532725</v>
+        <v>2915967.029364985</v>
       </c>
     </row>
     <row r="4">
@@ -6764,28 +6764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1801.076833663992</v>
+        <v>1921.858641946189</v>
       </c>
       <c r="AB4" t="n">
-        <v>2464.312781721117</v>
+        <v>2629.571780330133</v>
       </c>
       <c r="AC4" t="n">
-        <v>2229.122228518365</v>
+        <v>2378.609140242598</v>
       </c>
       <c r="AD4" t="n">
-        <v>1801076.833663992</v>
+        <v>1921858.641946189</v>
       </c>
       <c r="AE4" t="n">
-        <v>2464312.781721117</v>
+        <v>2629571.780330133</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.128608614198528e-06</v>
+        <v>1.627074876670711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.93033854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2229122.228518365</v>
+        <v>2378609.140242598</v>
       </c>
     </row>
     <row r="5">
@@ -6870,28 +6870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1631.332242965189</v>
+        <v>1743.395432105882</v>
       </c>
       <c r="AB5" t="n">
-        <v>2232.060744124193</v>
+        <v>2385.390543385473</v>
       </c>
       <c r="AC5" t="n">
-        <v>2019.03599942191</v>
+        <v>2157.732217841417</v>
       </c>
       <c r="AD5" t="n">
-        <v>1631332.242965189</v>
+        <v>1743395.432105883</v>
       </c>
       <c r="AE5" t="n">
-        <v>2232060.744124193</v>
+        <v>2385390.543385473</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205822323988583e-06</v>
+        <v>1.738391134364844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.205078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2019035.999421909</v>
+        <v>2157732.217841418</v>
       </c>
     </row>
     <row r="6">
@@ -6976,28 +6976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1535.014169488057</v>
+        <v>1638.529331687839</v>
       </c>
       <c r="AB6" t="n">
-        <v>2100.274106739277</v>
+        <v>2241.908118427668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1899.826893745303</v>
+        <v>2027.943554142737</v>
       </c>
       <c r="AD6" t="n">
-        <v>1535014.169488057</v>
+        <v>1638529.331687839</v>
       </c>
       <c r="AE6" t="n">
-        <v>2100274.106739277</v>
+        <v>2241908.118427668</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253065536991929e-06</v>
+        <v>1.806499993365124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.25455729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1899826.893745303</v>
+        <v>2027943.554142737</v>
       </c>
     </row>
     <row r="7">
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1468.336854896367</v>
+        <v>1571.937268442169</v>
       </c>
       <c r="AB7" t="n">
-        <v>2009.043263319414</v>
+        <v>2150.793919660455</v>
       </c>
       <c r="AC7" t="n">
-        <v>1817.302993978138</v>
+        <v>1945.525166626285</v>
       </c>
       <c r="AD7" t="n">
-        <v>1468336.854896367</v>
+        <v>1571937.268442169</v>
       </c>
       <c r="AE7" t="n">
-        <v>2009043.263319414</v>
+        <v>2150793.919660455</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.286117112887551e-06</v>
+        <v>1.85414927416769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.62955729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1817302.993978138</v>
+        <v>1945525.166626285</v>
       </c>
     </row>
     <row r="8">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1427.196056294478</v>
+        <v>1530.625877639687</v>
       </c>
       <c r="AB8" t="n">
-        <v>1952.752607668371</v>
+        <v>2094.269852234564</v>
       </c>
       <c r="AC8" t="n">
-        <v>1766.384639497999</v>
+        <v>1894.395676863495</v>
       </c>
       <c r="AD8" t="n">
-        <v>1427196.056294478</v>
+        <v>1530625.877639687</v>
       </c>
       <c r="AE8" t="n">
-        <v>1952752.607668371</v>
+        <v>2094269.852234564</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309925451456432e-06</v>
+        <v>1.888472908644116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1766384.639497999</v>
+        <v>1894395.676863495</v>
       </c>
     </row>
     <row r="9">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1388.978033053377</v>
+        <v>1492.493105744607</v>
       </c>
       <c r="AB9" t="n">
-        <v>1900.461022209708</v>
+        <v>2042.09491142855</v>
       </c>
       <c r="AC9" t="n">
-        <v>1719.08368956381</v>
+        <v>1847.200239180018</v>
       </c>
       <c r="AD9" t="n">
-        <v>1388978.033053377</v>
+        <v>1492493.105744607</v>
       </c>
       <c r="AE9" t="n">
-        <v>1900461.022209708</v>
+        <v>2042094.91142855</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.326544605437846e-06</v>
+        <v>1.912432151533543e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.91015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1719083.68956381</v>
+        <v>1847200.239180018</v>
       </c>
     </row>
     <row r="10">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1362.155187475001</v>
+        <v>1465.670260166231</v>
       </c>
       <c r="AB10" t="n">
-        <v>1863.760821548943</v>
+        <v>2005.394710767786</v>
       </c>
       <c r="AC10" t="n">
-        <v>1685.886104545054</v>
+        <v>1814.002654161262</v>
       </c>
       <c r="AD10" t="n">
-        <v>1362155.187475001</v>
+        <v>1465670.260166231</v>
       </c>
       <c r="AE10" t="n">
-        <v>1863760.821548943</v>
+        <v>2005394.710767786</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341950000982416e-06</v>
+        <v>1.934641562077112e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.64973958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1685886.104545054</v>
+        <v>1814002.654161262</v>
       </c>
     </row>
     <row r="11">
@@ -7506,28 +7506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1341.888646500267</v>
+        <v>1445.233126990905</v>
       </c>
       <c r="AB11" t="n">
-        <v>1836.031246090627</v>
+        <v>1977.431723534622</v>
       </c>
       <c r="AC11" t="n">
-        <v>1660.803000849775</v>
+        <v>1788.708415183332</v>
       </c>
       <c r="AD11" t="n">
-        <v>1341888.646500267</v>
+        <v>1445233.126990905</v>
       </c>
       <c r="AE11" t="n">
-        <v>1836031.246090627</v>
+        <v>1977431.723534622</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.353247291048433e-06</v>
+        <v>1.950928463142396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.4609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1660803.000849775</v>
+        <v>1788708.415183332</v>
       </c>
     </row>
     <row r="12">
@@ -7612,28 +7612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1324.417190011126</v>
+        <v>1419.298984415424</v>
       </c>
       <c r="AB12" t="n">
-        <v>1812.126028535923</v>
+        <v>1941.947485529227</v>
       </c>
       <c r="AC12" t="n">
-        <v>1639.179263707309</v>
+        <v>1756.610743050731</v>
       </c>
       <c r="AD12" t="n">
-        <v>1324417.190011126</v>
+        <v>1419298.984415424</v>
       </c>
       <c r="AE12" t="n">
-        <v>1812126.028535923</v>
+        <v>1941947.485529227</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>1.963581097027824e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.314453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1639179.263707309</v>
+        <v>1756610.743050731</v>
       </c>
     </row>
     <row r="13">
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1308.022143057288</v>
+        <v>1402.903937461586</v>
       </c>
       <c r="AB13" t="n">
-        <v>1789.693601995258</v>
+        <v>1919.515058988562</v>
       </c>
       <c r="AC13" t="n">
-        <v>1618.887756471576</v>
+        <v>1736.319235814998</v>
       </c>
       <c r="AD13" t="n">
-        <v>1308022.143057288</v>
+        <v>1402903.937461586</v>
       </c>
       <c r="AE13" t="n">
-        <v>1789693.601995258</v>
+        <v>1919515.058988562</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>1.975156911008108e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.18424479166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1618887.756471576</v>
+        <v>1736319.235814998</v>
       </c>
     </row>
     <row r="14">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1291.357241732179</v>
+        <v>1386.239036136477</v>
       </c>
       <c r="AB14" t="n">
-        <v>1766.891948798685</v>
+        <v>1896.71340579199</v>
       </c>
       <c r="AC14" t="n">
-        <v>1598.262261053763</v>
+        <v>1715.693740397186</v>
       </c>
       <c r="AD14" t="n">
-        <v>1291357.241732179</v>
+        <v>1386239.036136477</v>
       </c>
       <c r="AE14" t="n">
-        <v>1766891.948798685</v>
+        <v>1896713.40579199</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.378362754087762e-06</v>
+        <v>1.987136532452822e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.05078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1598262.261053763</v>
+        <v>1715693.740397186</v>
       </c>
     </row>
     <row r="15">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1272.664715729826</v>
+        <v>1376.094447566485</v>
       </c>
       <c r="AB15" t="n">
-        <v>1741.31601006622</v>
+        <v>1882.833132162864</v>
       </c>
       <c r="AC15" t="n">
-        <v>1575.127254017869</v>
+        <v>1703.138180602138</v>
       </c>
       <c r="AD15" t="n">
-        <v>1272664.715729826</v>
+        <v>1376094.447566485</v>
       </c>
       <c r="AE15" t="n">
-        <v>1741316.01006622</v>
+        <v>1882833.132162864</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.3820973954319e-06</v>
+        <v>1.992520631978536e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.9921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1575127.254017869</v>
+        <v>1703138.180602138</v>
       </c>
     </row>
     <row r="16">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1258.133654261387</v>
+        <v>1361.563386098045</v>
       </c>
       <c r="AB16" t="n">
-        <v>1721.433970699914</v>
+        <v>1862.951092796558</v>
       </c>
       <c r="AC16" t="n">
-        <v>1557.142728584065</v>
+        <v>1685.153655168335</v>
       </c>
       <c r="AD16" t="n">
-        <v>1258133.654261387</v>
+        <v>1361563.386098045</v>
       </c>
       <c r="AE16" t="n">
-        <v>1721433.970699914</v>
+        <v>1862951.092796559</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388726383817745e-06</v>
+        <v>2.002077408636677e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.884765625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1557142.728584065</v>
+        <v>1685153.655168335</v>
       </c>
     </row>
     <row r="17">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1248.587548090448</v>
+        <v>1352.017279927107</v>
       </c>
       <c r="AB17" t="n">
-        <v>1708.372567092354</v>
+        <v>1849.889689188999</v>
       </c>
       <c r="AC17" t="n">
-        <v>1545.327887005016</v>
+        <v>1673.338813589286</v>
       </c>
       <c r="AD17" t="n">
-        <v>1248587.548090448</v>
+        <v>1352017.279927107</v>
       </c>
       <c r="AE17" t="n">
-        <v>1708372.567092354</v>
+        <v>1849889.689188999</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.391714096893055e-06</v>
+        <v>2.006384688257248e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.83919270833333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1545327.887005016</v>
+        <v>1673338.813589286</v>
       </c>
     </row>
     <row r="18">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1236.573235080439</v>
+        <v>1331.540280830757</v>
       </c>
       <c r="AB18" t="n">
-        <v>1691.934053997978</v>
+        <v>1821.872155643931</v>
       </c>
       <c r="AC18" t="n">
-        <v>1530.458242528769</v>
+        <v>1647.995234122904</v>
       </c>
       <c r="AD18" t="n">
-        <v>1236573.235080439</v>
+        <v>1331540.280830757</v>
       </c>
       <c r="AE18" t="n">
-        <v>1691934.053997978</v>
+        <v>1821872.155643931</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.013518620128819e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.76106770833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1530458.242528769</v>
+        <v>1647995.234122904</v>
       </c>
     </row>
     <row r="19">
@@ -8354,28 +8354,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1227.112767180928</v>
+        <v>1322.079812931246</v>
       </c>
       <c r="AB19" t="n">
-        <v>1678.989824451479</v>
+        <v>1808.927926097433</v>
       </c>
       <c r="AC19" t="n">
-        <v>1518.749392082848</v>
+        <v>1636.286383676983</v>
       </c>
       <c r="AD19" t="n">
-        <v>1227112.767180928</v>
+        <v>1322079.812931246</v>
       </c>
       <c r="AE19" t="n">
-        <v>1678989.824451479</v>
+        <v>1808927.926097433</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.399743575782952e-06</v>
+        <v>2.017960502237534e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.71223958333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1518749.392082848</v>
+        <v>1636286.383676983</v>
       </c>
     </row>
     <row r="20">
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1216.67013284785</v>
+        <v>1311.637178598169</v>
       </c>
       <c r="AB20" t="n">
-        <v>1664.70175146045</v>
+        <v>1794.639853106403</v>
       </c>
       <c r="AC20" t="n">
-        <v>1505.824952724646</v>
+        <v>1623.361944318781</v>
       </c>
       <c r="AD20" t="n">
-        <v>1216670.13284785</v>
+        <v>1311637.178598169</v>
       </c>
       <c r="AE20" t="n">
-        <v>1664701.75146045</v>
+        <v>1794639.853106403</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.403104752992676e-06</v>
+        <v>2.022806191810675e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.66015625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1505824.952724646</v>
+        <v>1623361.944318781</v>
       </c>
     </row>
     <row r="21">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1206.980454465148</v>
+        <v>1301.947500215466</v>
       </c>
       <c r="AB21" t="n">
-        <v>1651.443906018795</v>
+        <v>1781.382007664749</v>
       </c>
       <c r="AC21" t="n">
-        <v>1493.832417444441</v>
+        <v>1611.369409038575</v>
       </c>
       <c r="AD21" t="n">
-        <v>1206980.454465148</v>
+        <v>1301947.500215466</v>
       </c>
       <c r="AE21" t="n">
-        <v>1651443.906018795</v>
+        <v>1781382.007664749</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.02724807391939e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1493832.417444441</v>
+        <v>1611369.409038575</v>
       </c>
     </row>
     <row r="22">
@@ -8672,28 +8672,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1199.400867143698</v>
+        <v>1294.367912894017</v>
       </c>
       <c r="AB22" t="n">
-        <v>1641.073180257796</v>
+        <v>1771.01128190375</v>
       </c>
       <c r="AC22" t="n">
-        <v>1484.451459194666</v>
+        <v>1601.9884507888</v>
       </c>
       <c r="AD22" t="n">
-        <v>1199400.867143699</v>
+        <v>1294367.912894017</v>
       </c>
       <c r="AE22" t="n">
-        <v>1641073.180257796</v>
+        <v>1771011.28190375</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.407866420706453e-06</v>
+        <v>2.029670918705961e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.58854166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1484451.459194666</v>
+        <v>1601988.4507888</v>
       </c>
     </row>
     <row r="23">
@@ -8778,28 +8778,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1188.100430143285</v>
+        <v>1283.067475893603</v>
       </c>
       <c r="AB23" t="n">
-        <v>1625.611423813735</v>
+        <v>1755.549525459688</v>
       </c>
       <c r="AC23" t="n">
-        <v>1470.465351084914</v>
+        <v>1588.002342679049</v>
       </c>
       <c r="AD23" t="n">
-        <v>1188100.430143285</v>
+        <v>1283067.475893603</v>
       </c>
       <c r="AE23" t="n">
-        <v>1625611.423813735</v>
+        <v>1755549.525459688</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.41132096394978e-06</v>
+        <v>2.034651210767246e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1470465.351084914</v>
+        <v>1588002.342679049</v>
       </c>
     </row>
     <row r="24">
@@ -8884,28 +8884,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1181.020536733258</v>
+        <v>1275.987582483576</v>
       </c>
       <c r="AB24" t="n">
-        <v>1615.924401307283</v>
+        <v>1745.862502953236</v>
       </c>
       <c r="AC24" t="n">
-        <v>1461.702844410657</v>
+        <v>1579.239836004791</v>
       </c>
       <c r="AD24" t="n">
-        <v>1181020.536733258</v>
+        <v>1275987.582483576</v>
       </c>
       <c r="AE24" t="n">
-        <v>1615924.401307283</v>
+        <v>1745862.502953236</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.412628088420229e-06</v>
+        <v>2.036535645601246e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.51692708333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>1461702.844410657</v>
+        <v>1579239.836004791</v>
       </c>
     </row>
     <row r="25">
@@ -8990,28 +8990,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1174.659765872751</v>
+        <v>1269.456219422477</v>
       </c>
       <c r="AB25" t="n">
-        <v>1607.221313998532</v>
+        <v>1736.926003869639</v>
       </c>
       <c r="AC25" t="n">
-        <v>1453.830367539794</v>
+        <v>1571.156223851277</v>
       </c>
       <c r="AD25" t="n">
-        <v>1174659.765872751</v>
+        <v>1269456.219422477</v>
       </c>
       <c r="AE25" t="n">
-        <v>1607221.313998532</v>
+        <v>1736926.003869639</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.414121944957884e-06</v>
+        <v>2.038689285411531e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.49088541666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1453830.367539793</v>
+        <v>1571156.223851277</v>
       </c>
     </row>
     <row r="26">
@@ -9096,28 +9096,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1170.730570662831</v>
+        <v>1265.527024212557</v>
       </c>
       <c r="AB26" t="n">
-        <v>1601.845215768461</v>
+        <v>1731.549905639567</v>
       </c>
       <c r="AC26" t="n">
-        <v>1448.967356579398</v>
+        <v>1566.293212890882</v>
       </c>
       <c r="AD26" t="n">
-        <v>1170730.570662831</v>
+        <v>1265527.024212557</v>
       </c>
       <c r="AE26" t="n">
-        <v>1601845.215768461</v>
+        <v>1731549.905639567</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.415615801495539e-06</v>
+        <v>2.040842925221817e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>1448967.356579399</v>
+        <v>1566293.212890882</v>
       </c>
     </row>
     <row r="27">
@@ -9202,28 +9202,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1174.82931488738</v>
+        <v>1269.625768437107</v>
       </c>
       <c r="AB27" t="n">
-        <v>1607.453298440322</v>
+        <v>1737.157988311429</v>
       </c>
       <c r="AC27" t="n">
-        <v>1454.040211712051</v>
+        <v>1571.366068023535</v>
       </c>
       <c r="AD27" t="n">
-        <v>1174829.31488738</v>
+        <v>1269625.768437107</v>
       </c>
       <c r="AE27" t="n">
-        <v>1607453.298440323</v>
+        <v>1737157.988311429</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.415709167529142e-06</v>
+        <v>2.04097752770996e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>21.46809895833333</v>
       </c>
       <c r="AH27" t="n">
-        <v>1454040.211712051</v>
+        <v>1571366.068023535</v>
       </c>
     </row>
   </sheetData>
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3267.207983337701</v>
+        <v>3443.803285792173</v>
       </c>
       <c r="AB2" t="n">
-        <v>4470.3381018463</v>
+        <v>4711.963585499416</v>
       </c>
       <c r="AC2" t="n">
-        <v>4043.695307564852</v>
+        <v>4262.260394181601</v>
       </c>
       <c r="AD2" t="n">
-        <v>3267207.983337701</v>
+        <v>3443803.285792173</v>
       </c>
       <c r="AE2" t="n">
-        <v>4470338.1018463</v>
+        <v>4711963.585499416</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.617726422883055e-07</v>
+        <v>1.115206491220956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.27278645833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4043695.307564852</v>
+        <v>4262260.394181602</v>
       </c>
     </row>
     <row r="3">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1797.305084251131</v>
+        <v>1923.481096721605</v>
       </c>
       <c r="AB3" t="n">
-        <v>2459.152107776601</v>
+        <v>2631.79169453151</v>
       </c>
       <c r="AC3" t="n">
-        <v>2224.454082052062</v>
+        <v>2380.617188948265</v>
       </c>
       <c r="AD3" t="n">
-        <v>1797305.084251131</v>
+        <v>1923481.096721605</v>
       </c>
       <c r="AE3" t="n">
-        <v>2459152.107776601</v>
+        <v>2631791.69453151</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10281729804081e-06</v>
+        <v>1.614483037499794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.50911458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2224454.082052062</v>
+        <v>2380617.188948265</v>
       </c>
     </row>
     <row r="4">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1510.905477797719</v>
+        <v>1620.331984012759</v>
       </c>
       <c r="AB4" t="n">
-        <v>2067.287531168144</v>
+        <v>2217.009704528303</v>
       </c>
       <c r="AC4" t="n">
-        <v>1869.988510649729</v>
+        <v>2005.421409920784</v>
       </c>
       <c r="AD4" t="n">
-        <v>1510905.477797719</v>
+        <v>1620331.984012759</v>
       </c>
       <c r="AE4" t="n">
-        <v>2067287.531168144</v>
+        <v>2217009.704528303</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230310627294083e-06</v>
+        <v>1.801128475361042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.55338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1869988.510649729</v>
+        <v>2005421.409920784</v>
       </c>
     </row>
     <row r="5">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1388.531654186991</v>
+        <v>1489.455485501006</v>
       </c>
       <c r="AB5" t="n">
-        <v>1899.850266951873</v>
+        <v>2037.938705400909</v>
       </c>
       <c r="AC5" t="n">
-        <v>1718.531223930582</v>
+        <v>1843.440695622382</v>
       </c>
       <c r="AD5" t="n">
-        <v>1388531.654186991</v>
+        <v>1489455.485501006</v>
       </c>
       <c r="AE5" t="n">
-        <v>1899850.266951873</v>
+        <v>2037938.705400909</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.297824140285021e-06</v>
+        <v>1.899965718592112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.22526041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1718531.223930582</v>
+        <v>1843440.695622382</v>
       </c>
     </row>
     <row r="6">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1313.111297814159</v>
+        <v>1413.949788273603</v>
       </c>
       <c r="AB6" t="n">
-        <v>1796.656808051271</v>
+        <v>1934.628479378109</v>
       </c>
       <c r="AC6" t="n">
-        <v>1625.186403914524</v>
+        <v>1749.990252574386</v>
       </c>
       <c r="AD6" t="n">
-        <v>1313111.297814159</v>
+        <v>1413949.788273603</v>
       </c>
       <c r="AE6" t="n">
-        <v>1796656.808051271</v>
+        <v>1934628.479378109</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.340128744991789e-06</v>
+        <v>1.961898068427889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.46028645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1625186.403914524</v>
+        <v>1749990.252574386</v>
       </c>
     </row>
     <row r="7">
@@ -10029,28 +10029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1260.735650375399</v>
+        <v>1361.659392180864</v>
       </c>
       <c r="AB7" t="n">
-        <v>1724.994136575072</v>
+        <v>1863.08245255456</v>
       </c>
       <c r="AC7" t="n">
-        <v>1560.363117224823</v>
+        <v>1685.272478135397</v>
       </c>
       <c r="AD7" t="n">
-        <v>1260735.650375399</v>
+        <v>1361659.392180864</v>
       </c>
       <c r="AE7" t="n">
-        <v>1724994.136575072</v>
+        <v>1863082.45255456</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367848885518826e-06</v>
+        <v>2.002479311356812e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.98502604166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1560363.117224823</v>
+        <v>1685272.478135397</v>
       </c>
     </row>
     <row r="8">
@@ -10135,28 +10135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1228.87485903357</v>
+        <v>1329.798600839035</v>
       </c>
       <c r="AB8" t="n">
-        <v>1681.40079626227</v>
+        <v>1819.489112241758</v>
       </c>
       <c r="AC8" t="n">
-        <v>1520.930264127838</v>
+        <v>1645.839625038412</v>
       </c>
       <c r="AD8" t="n">
-        <v>1228874.85903357</v>
+        <v>1329798.600839035</v>
       </c>
       <c r="AE8" t="n">
-        <v>1681400.796262271</v>
+        <v>1819489.112241758</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387938743461766e-06</v>
+        <v>2.031890107625858e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.65299479166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1520930.264127838</v>
+        <v>1645839.625038412</v>
       </c>
     </row>
     <row r="9">
@@ -10241,28 +10241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1202.302889171742</v>
+        <v>1294.809296930754</v>
       </c>
       <c r="AB9" t="n">
-        <v>1645.043854824741</v>
+        <v>1771.615203015304</v>
       </c>
       <c r="AC9" t="n">
-        <v>1488.043178153818</v>
+        <v>1602.534734517076</v>
       </c>
       <c r="AD9" t="n">
-        <v>1202302.889171742</v>
+        <v>1294809.296930755</v>
       </c>
       <c r="AE9" t="n">
-        <v>1645043.854824741</v>
+        <v>1771615.203015304</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403295894485456e-06</v>
+        <v>2.054372399004599e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40559895833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1488043.178153818</v>
+        <v>1602534.734517077</v>
       </c>
     </row>
     <row r="10">
@@ -10347,28 +10347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1179.217091981966</v>
+        <v>1271.723499740978</v>
       </c>
       <c r="AB10" t="n">
-        <v>1613.456848636198</v>
+        <v>1740.02819682676</v>
       </c>
       <c r="AC10" t="n">
-        <v>1459.470791503268</v>
+        <v>1573.962347866526</v>
       </c>
       <c r="AD10" t="n">
-        <v>1179217.091981966</v>
+        <v>1271723.499740978</v>
       </c>
       <c r="AE10" t="n">
-        <v>1613456.848636198</v>
+        <v>1740028.19682676</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.07416812726261e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.19075520833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1459470.791503268</v>
+        <v>1573962.347866526</v>
       </c>
     </row>
     <row r="11">
@@ -10453,28 +10453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1159.5309329278</v>
+        <v>1252.037340686813</v>
       </c>
       <c r="AB11" t="n">
-        <v>1586.521377326246</v>
+        <v>1713.092725516808</v>
       </c>
       <c r="AC11" t="n">
-        <v>1435.106003770966</v>
+        <v>1549.597560134225</v>
       </c>
       <c r="AD11" t="n">
-        <v>1159530.9329278</v>
+        <v>1252037.340686813</v>
       </c>
       <c r="AE11" t="n">
-        <v>1586521.377326246</v>
+        <v>1713092.725516808</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.427249186648192e-06</v>
+        <v>2.089439117633076e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.02799479166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1435106.003770967</v>
+        <v>1549597.560134225</v>
       </c>
     </row>
     <row r="12">
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1135.052318293243</v>
+        <v>1235.890719244136</v>
       </c>
       <c r="AB12" t="n">
-        <v>1553.028656862984</v>
+        <v>1691.000205720274</v>
       </c>
       <c r="AC12" t="n">
-        <v>1404.80978154139</v>
+        <v>1529.613519420025</v>
       </c>
       <c r="AD12" t="n">
-        <v>1135052.318293243</v>
+        <v>1235890.719244136</v>
       </c>
       <c r="AE12" t="n">
-        <v>1553028.656862984</v>
+        <v>1691000.205720274</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.434203368243825e-06</v>
+        <v>2.099619777880053e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.92057291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1404809.78154139</v>
+        <v>1529613.519420025</v>
       </c>
     </row>
     <row r="13">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1117.215507239361</v>
+        <v>1218.053908190254</v>
       </c>
       <c r="AB13" t="n">
-        <v>1528.623545074496</v>
+        <v>1666.595093931786</v>
       </c>
       <c r="AC13" t="n">
-        <v>1382.733859369206</v>
+        <v>1507.537597247841</v>
       </c>
       <c r="AD13" t="n">
-        <v>1117215.507239361</v>
+        <v>1218053.908190254</v>
       </c>
       <c r="AE13" t="n">
-        <v>1528623.545074496</v>
+        <v>1666595.093931786</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442316580105397e-06</v>
+        <v>2.11149721483486e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.80013020833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1382733.859369206</v>
+        <v>1507537.597247841</v>
       </c>
     </row>
     <row r="14">
@@ -10771,28 +10771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1104.540890077486</v>
+        <v>1197.132549182519</v>
       </c>
       <c r="AB14" t="n">
-        <v>1511.281574708973</v>
+        <v>1637.969567552185</v>
       </c>
       <c r="AC14" t="n">
-        <v>1367.04698231576</v>
+        <v>1481.64405092973</v>
       </c>
       <c r="AD14" t="n">
-        <v>1104540.890077486</v>
+        <v>1197132.549182519</v>
       </c>
       <c r="AE14" t="n">
-        <v>1511281.574708973</v>
+        <v>1637969.567552185</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.446662943602668e-06</v>
+        <v>2.11786012748922e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.73502604166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1367046.98231576</v>
+        <v>1481644.05092973</v>
       </c>
     </row>
     <row r="15">
@@ -10877,28 +10877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1089.765909311753</v>
+        <v>1182.357568416787</v>
       </c>
       <c r="AB15" t="n">
-        <v>1491.06579419915</v>
+        <v>1617.753787042362</v>
       </c>
       <c r="AC15" t="n">
-        <v>1348.760567524768</v>
+        <v>1463.357636138739</v>
       </c>
       <c r="AD15" t="n">
-        <v>1089765.909311753</v>
+        <v>1182357.568416787</v>
       </c>
       <c r="AE15" t="n">
-        <v>1491065.79419915</v>
+        <v>1617753.787042362</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452747852498847e-06</v>
+        <v>2.126768205205325e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1348760.567524768</v>
+        <v>1463357.636138739</v>
       </c>
     </row>
     <row r="16">
@@ -10983,28 +10983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1075.722509392342</v>
+        <v>1168.314168497375</v>
       </c>
       <c r="AB16" t="n">
-        <v>1471.850994878332</v>
+        <v>1598.538987721544</v>
       </c>
       <c r="AC16" t="n">
-        <v>1331.379601682989</v>
+        <v>1445.976670296959</v>
       </c>
       <c r="AD16" t="n">
-        <v>1075722.509392342</v>
+        <v>1168314.168497375</v>
       </c>
       <c r="AE16" t="n">
-        <v>1471850.994878332</v>
+        <v>1598538.987721544</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.456901044285128e-06</v>
+        <v>2.132848321741714e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1331379.601682989</v>
+        <v>1445976.670296959</v>
       </c>
     </row>
     <row r="17">
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1064.093660607707</v>
+        <v>1156.68531971274</v>
       </c>
       <c r="AB17" t="n">
-        <v>1455.939890942595</v>
+        <v>1582.627883785806</v>
       </c>
       <c r="AC17" t="n">
-        <v>1316.987031175504</v>
+        <v>1431.584099789474</v>
       </c>
       <c r="AD17" t="n">
-        <v>1064093.660607707</v>
+        <v>1156685.31971274</v>
       </c>
       <c r="AE17" t="n">
-        <v>1455939.890942595</v>
+        <v>1582627.883785806</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.459605448238985e-06</v>
+        <v>2.136807467393316e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.53971354166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1316987.031175504</v>
+        <v>1431584.099789474</v>
       </c>
     </row>
     <row r="18">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1055.176684867433</v>
+        <v>1147.768343972466</v>
       </c>
       <c r="AB18" t="n">
-        <v>1443.739291345546</v>
+        <v>1570.427284188758</v>
       </c>
       <c r="AC18" t="n">
-        <v>1305.950839680348</v>
+        <v>1420.547908294318</v>
       </c>
       <c r="AD18" t="n">
-        <v>1055176.684867433</v>
+        <v>1147768.343972466</v>
       </c>
       <c r="AE18" t="n">
-        <v>1443739.291345546</v>
+        <v>1570427.284188758</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.462309852192842e-06</v>
+        <v>2.140766613044919e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.50065104166667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1305950.839680348</v>
+        <v>1420547.908294318</v>
       </c>
     </row>
     <row r="19">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1055.862997376816</v>
+        <v>1148.454656481849</v>
       </c>
       <c r="AB19" t="n">
-        <v>1444.678334398855</v>
+        <v>1571.366327242066</v>
       </c>
       <c r="AC19" t="n">
-        <v>1306.800261782604</v>
+        <v>1421.397330396574</v>
       </c>
       <c r="AD19" t="n">
-        <v>1055862.997376816</v>
+        <v>1148454.656481849</v>
       </c>
       <c r="AE19" t="n">
-        <v>1444678.334398855</v>
+        <v>1571366.327242066</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.140625214985933e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.50065104166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1306800.261782604</v>
+        <v>1421397.330396574</v>
       </c>
     </row>
     <row r="20">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1060.11385197264</v>
+        <v>1152.705511077673</v>
       </c>
       <c r="AB20" t="n">
-        <v>1450.49454119133</v>
+        <v>1577.182534034542</v>
       </c>
       <c r="AC20" t="n">
-        <v>1312.061377961904</v>
+        <v>1426.658446575874</v>
       </c>
       <c r="AD20" t="n">
-        <v>1060113.85197264</v>
+        <v>1152705.511077673</v>
       </c>
       <c r="AE20" t="n">
-        <v>1450494.54119133</v>
+        <v>1577182.534034542</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.140625214985933e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.50390625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1312061.377961904</v>
+        <v>1426658.446575874</v>
       </c>
     </row>
   </sheetData>
@@ -11704,28 +11704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1325.195896226654</v>
+        <v>1441.61988638568</v>
       </c>
       <c r="AB2" t="n">
-        <v>1813.191488734102</v>
+        <v>1972.487928333628</v>
       </c>
       <c r="AC2" t="n">
-        <v>1640.143037879556</v>
+        <v>1784.23644885766</v>
       </c>
       <c r="AD2" t="n">
-        <v>1325195.896226654</v>
+        <v>1441619.88638568</v>
       </c>
       <c r="AE2" t="n">
-        <v>1813191.488734102</v>
+        <v>1972487.928333628</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214955965848584e-06</v>
+        <v>1.879686844724312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.876953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1640143.037879556</v>
+        <v>1784236.44885766</v>
       </c>
     </row>
     <row r="3">
@@ -11810,28 +11810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>975.690508758177</v>
+        <v>1068.812722223035</v>
       </c>
       <c r="AB3" t="n">
-        <v>1334.982798510261</v>
+        <v>1462.396719234991</v>
       </c>
       <c r="AC3" t="n">
-        <v>1207.573913880567</v>
+        <v>1322.827628837889</v>
       </c>
       <c r="AD3" t="n">
-        <v>975690.5087581769</v>
+        <v>1068812.722223035</v>
       </c>
       <c r="AE3" t="n">
-        <v>1334982.798510261</v>
+        <v>1462396.719234991</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456912511872718e-06</v>
+        <v>2.254023486825446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1207573.913880567</v>
+        <v>1322827.628837889</v>
       </c>
     </row>
     <row r="4">
@@ -11916,28 +11916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>870.0090040388411</v>
+        <v>963.1311279951478</v>
       </c>
       <c r="AB4" t="n">
-        <v>1190.384701414329</v>
+        <v>1317.798499669511</v>
       </c>
       <c r="AC4" t="n">
-        <v>1076.776056226767</v>
+        <v>1192.029660402862</v>
       </c>
       <c r="AD4" t="n">
-        <v>870009.0040388411</v>
+        <v>963131.1279951478</v>
       </c>
       <c r="AE4" t="n">
-        <v>1190384.701414329</v>
+        <v>1317798.499669511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540007610752277e-06</v>
+        <v>2.382581861462406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.77994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1076776.056226767</v>
+        <v>1192029.660402862</v>
       </c>
     </row>
     <row r="5">
@@ -12022,28 +12022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>818.2192109802096</v>
+        <v>903.5741357108275</v>
       </c>
       <c r="AB5" t="n">
-        <v>1119.523621747094</v>
+        <v>1236.309995357042</v>
       </c>
       <c r="AC5" t="n">
-        <v>1012.677858548822</v>
+        <v>1118.318304572141</v>
       </c>
       <c r="AD5" t="n">
-        <v>818219.2109802096</v>
+        <v>903574.1357108274</v>
       </c>
       <c r="AE5" t="n">
-        <v>1119523.621747094</v>
+        <v>1236309.995357041</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.582579029763204e-06</v>
+        <v>2.448445101386659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.16796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1012677.858548822</v>
+        <v>1118318.304572141</v>
       </c>
     </row>
     <row r="6">
@@ -12128,28 +12128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>777.0133874231195</v>
+        <v>870.0501705248545</v>
       </c>
       <c r="AB6" t="n">
-        <v>1063.143996083646</v>
+        <v>1190.44102721663</v>
       </c>
       <c r="AC6" t="n">
-        <v>961.6790252293926</v>
+        <v>1076.827006373549</v>
       </c>
       <c r="AD6" t="n">
-        <v>777013.3874231195</v>
+        <v>870050.1705248544</v>
       </c>
       <c r="AE6" t="n">
-        <v>1063143.996083647</v>
+        <v>1190441.02721663</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.605643039050137e-06</v>
+        <v>2.484127970611444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>961679.0252293926</v>
+        <v>1076827.00637355</v>
       </c>
     </row>
     <row r="7">
@@ -12234,28 +12234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>780.111244772829</v>
+        <v>873.148027874564</v>
       </c>
       <c r="AB7" t="n">
-        <v>1067.38262117734</v>
+        <v>1194.679652310323</v>
       </c>
       <c r="AC7" t="n">
-        <v>965.5131218930914</v>
+        <v>1080.661103037248</v>
       </c>
       <c r="AD7" t="n">
-        <v>780111.244772829</v>
+        <v>873148.0278745641</v>
       </c>
       <c r="AE7" t="n">
-        <v>1067382.62117734</v>
+        <v>1194679.652310323</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606397469260458e-06</v>
+        <v>2.48529516726833e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.83919270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>965513.1218930914</v>
+        <v>1080661.103037248</v>
       </c>
     </row>
   </sheetData>
@@ -12531,28 +12531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1854.653489182589</v>
+        <v>1990.762469827083</v>
       </c>
       <c r="AB2" t="n">
-        <v>2537.618725436887</v>
+        <v>2723.849037459118</v>
       </c>
       <c r="AC2" t="n">
-        <v>2295.431955851439</v>
+        <v>2463.888708270154</v>
       </c>
       <c r="AD2" t="n">
-        <v>1854653.489182589</v>
+        <v>1990762.469827083</v>
       </c>
       <c r="AE2" t="n">
-        <v>2537618.725436887</v>
+        <v>2723849.037459118</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032912247633422e-06</v>
+        <v>1.561034049775604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.49348958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2295431.955851439</v>
+        <v>2463888.708270154</v>
       </c>
     </row>
     <row r="3">
@@ -12637,28 +12637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1242.841816318696</v>
+        <v>1346.950275770784</v>
       </c>
       <c r="AB3" t="n">
-        <v>1700.511003398447</v>
+        <v>1842.956790561871</v>
       </c>
       <c r="AC3" t="n">
-        <v>1538.216619916282</v>
+        <v>1667.067581076746</v>
       </c>
       <c r="AD3" t="n">
-        <v>1242841.816318696</v>
+        <v>1346950.275770784</v>
       </c>
       <c r="AE3" t="n">
-        <v>1700511.003398447</v>
+        <v>1842956.790561871</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316246531571997e-06</v>
+        <v>1.989235444144077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.498046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1538216.619916282</v>
+        <v>1667067.581076746</v>
       </c>
     </row>
     <row r="4">
@@ -12743,28 +12743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1092.286599921808</v>
+        <v>1188.544186062742</v>
       </c>
       <c r="AB4" t="n">
-        <v>1494.514714296848</v>
+        <v>1626.218590239867</v>
       </c>
       <c r="AC4" t="n">
-        <v>1351.880327528932</v>
+        <v>1471.014570399499</v>
       </c>
       <c r="AD4" t="n">
-        <v>1092286.599921808</v>
+        <v>1188544.186062742</v>
       </c>
       <c r="AE4" t="n">
-        <v>1494514.714296848</v>
+        <v>1626218.590239867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4172900535006e-06</v>
+        <v>2.141941909384653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.681640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1351880.327528931</v>
+        <v>1471014.570399499</v>
       </c>
     </row>
     <row r="5">
@@ -12849,28 +12849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1017.435755995852</v>
+        <v>1113.608001282216</v>
       </c>
       <c r="AB5" t="n">
-        <v>1392.100487451178</v>
+        <v>1523.687596271999</v>
       </c>
       <c r="AC5" t="n">
-        <v>1259.240370754142</v>
+        <v>1378.268990592772</v>
       </c>
       <c r="AD5" t="n">
-        <v>1017435.755995852</v>
+        <v>1113608.001282216</v>
       </c>
       <c r="AE5" t="n">
-        <v>1392100.487451178</v>
+        <v>1523687.596271999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.469873927157323e-06</v>
+        <v>2.221411600479239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.83528645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1259240.370754142</v>
+        <v>1378268.990592772</v>
       </c>
     </row>
     <row r="6">
@@ -12955,28 +12955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>975.3971865890885</v>
+        <v>1063.548055872258</v>
       </c>
       <c r="AB6" t="n">
-        <v>1334.581462178054</v>
+        <v>1455.193370473172</v>
       </c>
       <c r="AC6" t="n">
-        <v>1207.210880524626</v>
+        <v>1316.311757571935</v>
       </c>
       <c r="AD6" t="n">
-        <v>975397.1865890885</v>
+        <v>1063548.055872258</v>
       </c>
       <c r="AE6" t="n">
-        <v>1334581.462178054</v>
+        <v>1455193.370473172</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.500290089370525e-06</v>
+        <v>2.267379362975127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.373046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1207210.880524626</v>
+        <v>1316311.757571934</v>
       </c>
     </row>
     <row r="7">
@@ -13061,28 +13061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>941.3935446365477</v>
+        <v>1029.544413919718</v>
       </c>
       <c r="AB7" t="n">
-        <v>1288.056179123779</v>
+        <v>1408.668087418897</v>
       </c>
       <c r="AC7" t="n">
-        <v>1165.125905186406</v>
+        <v>1274.226782233715</v>
       </c>
       <c r="AD7" t="n">
-        <v>941393.5446365478</v>
+        <v>1029544.413919718</v>
       </c>
       <c r="AE7" t="n">
-        <v>1288056.179123779</v>
+        <v>1408668.087418897</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523591962794876e-06</v>
+        <v>2.302595343734688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.02799479166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1165125.905186406</v>
+        <v>1274226.782233715</v>
       </c>
     </row>
     <row r="8">
@@ -13167,28 +13167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>907.2014013293458</v>
+        <v>1003.288305761138</v>
       </c>
       <c r="AB8" t="n">
-        <v>1241.272980199964</v>
+        <v>1372.743321898587</v>
       </c>
       <c r="AC8" t="n">
-        <v>1122.807629107248</v>
+        <v>1241.730625913938</v>
       </c>
       <c r="AD8" t="n">
-        <v>907201.4013293458</v>
+        <v>1003288.305761138</v>
       </c>
       <c r="AE8" t="n">
-        <v>1241272.980199964</v>
+        <v>1372743.321898587</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538232962911062e-06</v>
+        <v>2.3247221989022e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.81966145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1122807.629107248</v>
+        <v>1241730.625913938</v>
       </c>
     </row>
     <row r="9">
@@ -13273,28 +13273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>881.3719453010158</v>
+        <v>969.6080659302062</v>
       </c>
       <c r="AB9" t="n">
-        <v>1205.931978946825</v>
+        <v>1326.660531894593</v>
       </c>
       <c r="AC9" t="n">
-        <v>1090.839523412302</v>
+        <v>1200.045912710323</v>
       </c>
       <c r="AD9" t="n">
-        <v>881371.9453010157</v>
+        <v>969608.0659302062</v>
       </c>
       <c r="AE9" t="n">
-        <v>1205931.978946825</v>
+        <v>1326660.531894593</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.550811850334827e-06</v>
+        <v>2.343732595595415e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1090839.523412302</v>
+        <v>1200045.912710323</v>
       </c>
     </row>
     <row r="10">
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>878.538923968351</v>
+        <v>966.7750445975413</v>
       </c>
       <c r="AB10" t="n">
-        <v>1202.055714175393</v>
+        <v>1322.78426712316</v>
       </c>
       <c r="AC10" t="n">
-        <v>1087.333203910284</v>
+        <v>1196.539593208304</v>
       </c>
       <c r="AD10" t="n">
-        <v>878538.923968351</v>
+        <v>966775.0445975413</v>
       </c>
       <c r="AE10" t="n">
-        <v>1202055.714175393</v>
+        <v>1322784.26712316</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.551842906681037e-06</v>
+        <v>2.345290824832564e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.62760416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1087333.203910284</v>
+        <v>1196539.593208304</v>
       </c>
     </row>
   </sheetData>
@@ -13676,28 +13676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.606491468547</v>
+        <v>1110.344513533951</v>
       </c>
       <c r="AB2" t="n">
-        <v>1374.546921737713</v>
+        <v>1519.222348359906</v>
       </c>
       <c r="AC2" t="n">
-        <v>1243.362092715787</v>
+        <v>1374.229899674393</v>
       </c>
       <c r="AD2" t="n">
-        <v>1004606.491468547</v>
+        <v>1110344.513533951</v>
       </c>
       <c r="AE2" t="n">
-        <v>1374546.921737713</v>
+        <v>1519222.348359906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371193692826337e-06</v>
+        <v>2.167155163945452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.572265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1243362.092715787</v>
+        <v>1374229.899674393</v>
       </c>
     </row>
     <row r="3">
@@ -13782,28 +13782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.179253033926</v>
+        <v>871.7144004790275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1068.843917197372</v>
+        <v>1192.718100060573</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.8349538719134</v>
+        <v>1078.886758581159</v>
       </c>
       <c r="AD3" t="n">
-        <v>781179.253033926</v>
+        <v>871714.4004790275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1068843.917197372</v>
+        <v>1192718.100060573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575249701154697e-06</v>
+        <v>2.48966323446566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.13151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>966834.9538719134</v>
+        <v>1078886.758581159</v>
       </c>
     </row>
     <row r="4">
@@ -13888,28 +13888,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.0082407314987</v>
+        <v>788.0699173940309</v>
       </c>
       <c r="AB4" t="n">
-        <v>964.6233777372952</v>
+        <v>1078.272028169524</v>
       </c>
       <c r="AC4" t="n">
-        <v>872.5610764234606</v>
+        <v>975.3632591653202</v>
       </c>
       <c r="AD4" t="n">
-        <v>705008.2407314987</v>
+        <v>788069.9173940308</v>
       </c>
       <c r="AE4" t="n">
-        <v>964623.3777372952</v>
+        <v>1078272.028169524</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.64319374781148e-06</v>
+        <v>2.597047984221978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.17447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>872561.0764234606</v>
+        <v>975363.2591653202</v>
       </c>
     </row>
     <row r="5">
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.9243713204902</v>
+        <v>790.9860479830221</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.6133562597549</v>
+        <v>1082.262006691984</v>
       </c>
       <c r="AC5" t="n">
-        <v>876.1702569957068</v>
+        <v>978.9724397375666</v>
       </c>
       <c r="AD5" t="n">
-        <v>707924.3713204901</v>
+        <v>790986.0479830221</v>
       </c>
       <c r="AE5" t="n">
-        <v>968613.356259755</v>
+        <v>1082262.006691984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.64408922124353e-06</v>
+        <v>2.598463269227004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>876170.2569957068</v>
+        <v>978972.4397375665</v>
       </c>
     </row>
   </sheetData>
@@ -14291,28 +14291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3575.888495852926</v>
+        <v>3762.149922006022</v>
       </c>
       <c r="AB2" t="n">
-        <v>4892.688397092756</v>
+        <v>5147.53949762961</v>
       </c>
       <c r="AC2" t="n">
-        <v>4425.737083405332</v>
+        <v>4656.265552592706</v>
       </c>
       <c r="AD2" t="n">
-        <v>3575888.495852926</v>
+        <v>3762149.922006022</v>
       </c>
       <c r="AE2" t="n">
-        <v>4892688.397092756</v>
+        <v>5147539.49762961</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.242998591603007e-07</v>
+        <v>1.055946833728147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4425737.083405332</v>
+        <v>4656265.552592706</v>
       </c>
     </row>
     <row r="3">
@@ -14397,28 +14397,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1901.915848718221</v>
+        <v>2028.857996304234</v>
       </c>
       <c r="AB3" t="n">
-        <v>2602.285170821685</v>
+        <v>2775.97301744117</v>
       </c>
       <c r="AC3" t="n">
-        <v>2353.926726448639</v>
+        <v>2511.038048759184</v>
       </c>
       <c r="AD3" t="n">
-        <v>1901915.848718221</v>
+        <v>2028857.996304234</v>
       </c>
       <c r="AE3" t="n">
-        <v>2602285.170821685</v>
+        <v>2775973.01744117</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072139913103545e-06</v>
+        <v>1.56305807910519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2353926.726448639</v>
+        <v>2511038.048759184</v>
       </c>
     </row>
     <row r="4">
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1577.260163636513</v>
+        <v>1695.728039061535</v>
       </c>
       <c r="AB4" t="n">
-        <v>2158.076939694919</v>
+        <v>2320.169913285234</v>
       </c>
       <c r="AC4" t="n">
-        <v>1952.113105450443</v>
+        <v>2098.736153140215</v>
       </c>
       <c r="AD4" t="n">
-        <v>1577260.163636514</v>
+        <v>1695728.039061535</v>
       </c>
       <c r="AE4" t="n">
-        <v>2158076.939694919</v>
+        <v>2320169.913285234</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204709663987253e-06</v>
+        <v>1.75632970124256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.86263020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1952113.105450443</v>
+        <v>2098736.153140215</v>
       </c>
     </row>
     <row r="5">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1446.598868965429</v>
+        <v>1556.507310391989</v>
       </c>
       <c r="AB5" t="n">
-        <v>1979.300391956448</v>
+        <v>2129.681970334492</v>
       </c>
       <c r="AC5" t="n">
-        <v>1790.398740513672</v>
+        <v>1926.428112113186</v>
       </c>
       <c r="AD5" t="n">
-        <v>1446598.868965429</v>
+        <v>1556507.310391989</v>
       </c>
       <c r="AE5" t="n">
-        <v>1979300.391956448</v>
+        <v>2129681.970334492</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273531072568759e-06</v>
+        <v>1.856663489196906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.46614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1790398.740513672</v>
+        <v>1926428.112113185</v>
       </c>
     </row>
     <row r="6">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1366.358943756057</v>
+        <v>1468.049135585341</v>
       </c>
       <c r="AB6" t="n">
-        <v>1869.512586349322</v>
+        <v>2008.649593064788</v>
       </c>
       <c r="AC6" t="n">
-        <v>1691.088928985537</v>
+        <v>1816.946895060094</v>
       </c>
       <c r="AD6" t="n">
-        <v>1366358.943756057</v>
+        <v>1468049.135585341</v>
       </c>
       <c r="AE6" t="n">
-        <v>1869512.586349322</v>
+        <v>2008649.593064788</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316987149753743e-06</v>
+        <v>1.920017508294644e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.65885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1691088.928985537</v>
+        <v>1816946.895060094</v>
       </c>
     </row>
     <row r="7">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1319.369375555007</v>
+        <v>1420.888975183699</v>
       </c>
       <c r="AB7" t="n">
-        <v>1805.219386103204</v>
+        <v>1944.122981043822</v>
       </c>
       <c r="AC7" t="n">
-        <v>1632.931781534834</v>
+        <v>1758.57861232674</v>
       </c>
       <c r="AD7" t="n">
-        <v>1319369.375555007</v>
+        <v>1420888.975183699</v>
       </c>
       <c r="AE7" t="n">
-        <v>1805219.386103204</v>
+        <v>1944122.981043822</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.34627692864935e-06</v>
+        <v>1.962718675351709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1632931.781534834</v>
+        <v>1758578.61232674</v>
       </c>
     </row>
     <row r="8">
@@ -14927,28 +14927,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1275.869096490059</v>
+        <v>1377.473947464772</v>
       </c>
       <c r="AB8" t="n">
-        <v>1745.700385189673</v>
+        <v>1884.720624782941</v>
       </c>
       <c r="AC8" t="n">
-        <v>1579.093190533049</v>
+        <v>1704.845533575667</v>
       </c>
       <c r="AD8" t="n">
-        <v>1275869.096490059</v>
+        <v>1377473.947464772</v>
       </c>
       <c r="AE8" t="n">
-        <v>1745700.385189673</v>
+        <v>1884720.624782941</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.367909249010157e-06</v>
+        <v>1.994256138603005e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.77669270833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1579093.190533049</v>
+        <v>1704845.533575667</v>
       </c>
     </row>
     <row r="9">
@@ -15033,28 +15033,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1248.283436181553</v>
+        <v>1349.888287156266</v>
       </c>
       <c r="AB9" t="n">
-        <v>1707.956467762134</v>
+        <v>1846.976707355402</v>
       </c>
       <c r="AC9" t="n">
-        <v>1544.951499610873</v>
+        <v>1670.703842653492</v>
       </c>
       <c r="AD9" t="n">
-        <v>1248283.436181553</v>
+        <v>1349888.287156266</v>
       </c>
       <c r="AE9" t="n">
-        <v>1707956.467762134</v>
+        <v>1846976.707355402</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38408563016492e-06</v>
+        <v>2.017839462892692e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.51302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1544951.499610873</v>
+        <v>1670703.842653492</v>
       </c>
     </row>
     <row r="10">
@@ -15139,28 +15139,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1226.289001640864</v>
+        <v>1319.419759471687</v>
       </c>
       <c r="AB10" t="n">
-        <v>1677.862712097593</v>
+        <v>1805.288323600787</v>
       </c>
       <c r="AC10" t="n">
-        <v>1517.729849750105</v>
+        <v>1632.994139734403</v>
       </c>
       <c r="AD10" t="n">
-        <v>1226289.001640864</v>
+        <v>1319419.759471687</v>
       </c>
       <c r="AE10" t="n">
-        <v>1677862.712097593</v>
+        <v>1805288.323600787</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.396529000283968e-06</v>
+        <v>2.035980481577066e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.31119791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1517729.849750105</v>
+        <v>1632994.139734403</v>
       </c>
     </row>
     <row r="11">
@@ -15245,28 +15245,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1206.653981397448</v>
+        <v>1299.784739228271</v>
       </c>
       <c r="AB11" t="n">
-        <v>1650.997211164594</v>
+        <v>1778.422822667788</v>
       </c>
       <c r="AC11" t="n">
-        <v>1493.428354520184</v>
+        <v>1608.692644504482</v>
       </c>
       <c r="AD11" t="n">
-        <v>1206653.981397448</v>
+        <v>1299784.739228271</v>
       </c>
       <c r="AE11" t="n">
-        <v>1650997.211164594</v>
+        <v>1778422.822667788</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.407153724001002e-06</v>
+        <v>2.05147012060757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.14192708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1493428.354520184</v>
+        <v>1608692.644504482</v>
       </c>
     </row>
     <row r="12">
@@ -15351,28 +15351,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1188.428608920578</v>
+        <v>1281.559366751401</v>
       </c>
       <c r="AB12" t="n">
-        <v>1626.060452495052</v>
+        <v>1753.486063998247</v>
       </c>
       <c r="AC12" t="n">
-        <v>1470.871525099103</v>
+        <v>1586.135815083401</v>
       </c>
       <c r="AD12" t="n">
-        <v>1188428.608920577</v>
+        <v>1281559.366751401</v>
       </c>
       <c r="AE12" t="n">
-        <v>1626060.452495052</v>
+        <v>1753486.063998247</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.416151237779391e-06</v>
+        <v>2.064587472579348e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.001953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1470871.525099103</v>
+        <v>1586135.815083401</v>
       </c>
     </row>
     <row r="13">
@@ -15457,28 +15457,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1165.467500455467</v>
+        <v>1266.987010575607</v>
       </c>
       <c r="AB13" t="n">
-        <v>1594.644050920475</v>
+        <v>1733.547523391545</v>
       </c>
       <c r="AC13" t="n">
-        <v>1442.453460797606</v>
+        <v>1568.100180808285</v>
       </c>
       <c r="AD13" t="n">
-        <v>1165467.500455467</v>
+        <v>1266987.010575607</v>
       </c>
       <c r="AE13" t="n">
-        <v>1594644.050920475</v>
+        <v>1733547.523391545</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.42189433168049e-06</v>
+        <v>2.072960250433675e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.9140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1442453.460797606</v>
+        <v>1568100.180808285</v>
       </c>
     </row>
     <row r="14">
@@ -15563,28 +15563,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1150.813553445135</v>
+        <v>1252.333063565275</v>
       </c>
       <c r="AB14" t="n">
-        <v>1574.593874134423</v>
+        <v>1713.497346605493</v>
       </c>
       <c r="AC14" t="n">
-        <v>1424.316844743415</v>
+        <v>1549.963564754095</v>
       </c>
       <c r="AD14" t="n">
-        <v>1150813.553445135</v>
+        <v>1252333.063565275</v>
       </c>
       <c r="AE14" t="n">
-        <v>1574593.874134423</v>
+        <v>1713497.346605493</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.427733143813274e-06</v>
+        <v>2.081472574585574e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1424316.844743415</v>
+        <v>1549963.564754095</v>
       </c>
     </row>
     <row r="15">
@@ -15669,28 +15669,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1136.915628902517</v>
+        <v>1230.13163807936</v>
       </c>
       <c r="AB15" t="n">
-        <v>1555.578120642055</v>
+        <v>1683.120376797898</v>
       </c>
       <c r="AC15" t="n">
-        <v>1407.115928075581</v>
+        <v>1522.485730310592</v>
       </c>
       <c r="AD15" t="n">
-        <v>1136915.628902517</v>
+        <v>1230131.63807936</v>
       </c>
       <c r="AE15" t="n">
-        <v>1555578.120642055</v>
+        <v>1683120.376797898</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.434146265336168e-06</v>
+        <v>2.090822176522905e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.72526041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1407115.928075581</v>
+        <v>1522485.730310592</v>
       </c>
     </row>
     <row r="16">
@@ -15775,28 +15775,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1123.485981030069</v>
+        <v>1216.701990206912</v>
       </c>
       <c r="AB16" t="n">
-        <v>1537.203083948723</v>
+        <v>1664.745340104566</v>
       </c>
       <c r="AC16" t="n">
-        <v>1390.494579094734</v>
+        <v>1505.864381329745</v>
       </c>
       <c r="AD16" t="n">
-        <v>1123485.981030069</v>
+        <v>1216701.990206912</v>
       </c>
       <c r="AE16" t="n">
-        <v>1537203.083948723</v>
+        <v>1664745.340104566</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.438740740457048e-06</v>
+        <v>2.097520398806366e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.65690104166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1390494.579094734</v>
+        <v>1505864.381329745</v>
       </c>
     </row>
     <row r="17">
@@ -15881,28 +15881,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1113.14978440294</v>
+        <v>1206.365793579784</v>
       </c>
       <c r="AB17" t="n">
-        <v>1523.060643722672</v>
+        <v>1650.602899878516</v>
       </c>
       <c r="AC17" t="n">
-        <v>1377.701873514819</v>
+        <v>1493.07167574983</v>
       </c>
       <c r="AD17" t="n">
-        <v>1113149.78440294</v>
+        <v>1206365.793579784</v>
       </c>
       <c r="AE17" t="n">
-        <v>1523060.643722672</v>
+        <v>1650602.899878516</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.441325132712542e-06</v>
+        <v>2.101288148840813e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.61783854166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1377701.873514819</v>
+        <v>1493071.67574983</v>
       </c>
     </row>
     <row r="18">
@@ -15987,28 +15987,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1099.149073467898</v>
+        <v>1192.365082644741</v>
       </c>
       <c r="AB18" t="n">
-        <v>1503.904253353574</v>
+        <v>1631.446509509417</v>
       </c>
       <c r="AC18" t="n">
-        <v>1360.373742156384</v>
+        <v>1475.743544391395</v>
       </c>
       <c r="AD18" t="n">
-        <v>1099149.073467897</v>
+        <v>1192365.082644741</v>
       </c>
       <c r="AE18" t="n">
-        <v>1503904.253353574</v>
+        <v>1631446.509509417</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.446206762528476e-06</v>
+        <v>2.10840501001699e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.54622395833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1360373.742156384</v>
+        <v>1475743.544391395</v>
       </c>
     </row>
     <row r="19">
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1087.72281308124</v>
+        <v>1180.768230057492</v>
       </c>
       <c r="AB19" t="n">
-        <v>1488.270339801518</v>
+        <v>1615.579184182514</v>
       </c>
       <c r="AC19" t="n">
-        <v>1346.231907371401</v>
+        <v>1461.39057432376</v>
       </c>
       <c r="AD19" t="n">
-        <v>1087722.81308124</v>
+        <v>1180768.230057491</v>
       </c>
       <c r="AE19" t="n">
-        <v>1488270.339801518</v>
+        <v>1615579.184182514</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.449365464174081e-06</v>
+        <v>2.11301003783687e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.49739583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1346231.907371401</v>
+        <v>1461390.57432376</v>
       </c>
     </row>
     <row r="20">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1083.637406083327</v>
+        <v>1176.682823059578</v>
       </c>
       <c r="AB20" t="n">
-        <v>1482.680505711536</v>
+        <v>1609.989350092533</v>
       </c>
       <c r="AC20" t="n">
-        <v>1341.175559201586</v>
+        <v>1456.334226153945</v>
       </c>
       <c r="AD20" t="n">
-        <v>1083637.406083327</v>
+        <v>1176682.823059578</v>
       </c>
       <c r="AE20" t="n">
-        <v>1482680.505711536</v>
+        <v>1609989.350092533</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.450609801185986e-06</v>
+        <v>2.114824139705307e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.47786458333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1341175.559201586</v>
+        <v>1456334.226153945</v>
       </c>
     </row>
     <row r="21">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1086.431696856793</v>
+        <v>1179.477113833044</v>
       </c>
       <c r="AB21" t="n">
-        <v>1486.503777623202</v>
+        <v>1613.812622004198</v>
       </c>
       <c r="AC21" t="n">
-        <v>1344.633943407998</v>
+        <v>1459.792610360357</v>
       </c>
       <c r="AD21" t="n">
-        <v>1086431.696856793</v>
+        <v>1179477.113833044</v>
       </c>
       <c r="AE21" t="n">
-        <v>1486503.777623201</v>
+        <v>1613812.622004198</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.450705519417671e-06</v>
+        <v>2.11496368600288e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.47786458333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1344633.943407997</v>
+        <v>1459792.610360357</v>
       </c>
     </row>
   </sheetData>
@@ -16602,28 +16602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>843.7954016127723</v>
+        <v>940.2845151657494</v>
       </c>
       <c r="AB2" t="n">
-        <v>1154.518094112462</v>
+        <v>1286.538756074905</v>
       </c>
       <c r="AC2" t="n">
-        <v>1044.33250758669</v>
+        <v>1163.753302863601</v>
       </c>
       <c r="AD2" t="n">
-        <v>843795.4016127723</v>
+        <v>940284.5151657495</v>
       </c>
       <c r="AE2" t="n">
-        <v>1154518.094112462</v>
+        <v>1286538.756074905</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467861670571113e-06</v>
+        <v>2.351859193552924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1044332.50758669</v>
+        <v>1163753.302863601</v>
       </c>
     </row>
     <row r="3">
@@ -16708,28 +16708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.0403767429142</v>
+        <v>754.1793796608681</v>
       </c>
       <c r="AB3" t="n">
-        <v>909.937582970399</v>
+        <v>1031.901499298008</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.0944171571222</v>
+        <v>933.4182684878558</v>
       </c>
       <c r="AD3" t="n">
-        <v>665040.3767429142</v>
+        <v>754179.3796608681</v>
       </c>
       <c r="AE3" t="n">
-        <v>909937.5829703991</v>
+        <v>1031901.499298008</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.650914811633438e-06</v>
+        <v>2.645153324292551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.587890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>823094.4171571222</v>
+        <v>933418.2684878558</v>
       </c>
     </row>
     <row r="4">
@@ -16814,28 +16814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.5806664664352</v>
+        <v>749.5490771837971</v>
       </c>
       <c r="AB4" t="n">
-        <v>903.835610621589</v>
+        <v>1025.566115174351</v>
       </c>
       <c r="AC4" t="n">
-        <v>817.5748084851106</v>
+        <v>927.687524533193</v>
       </c>
       <c r="AD4" t="n">
-        <v>660580.6664664352</v>
+        <v>749549.077183797</v>
       </c>
       <c r="AE4" t="n">
-        <v>903835.610621589</v>
+        <v>1025566.115174351</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.659620718217128e-06</v>
+        <v>2.659102231636863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.46744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>817574.8084851105</v>
+        <v>927687.524533193</v>
       </c>
     </row>
   </sheetData>
@@ -17111,28 +17111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2481.177906909099</v>
+        <v>2637.523609672013</v>
       </c>
       <c r="AB2" t="n">
-        <v>3394.857074077047</v>
+        <v>3608.776162082884</v>
       </c>
       <c r="AC2" t="n">
-        <v>3070.856679638834</v>
+        <v>3264.359630122712</v>
       </c>
       <c r="AD2" t="n">
-        <v>2481177.906909099</v>
+        <v>2637523.609672013</v>
       </c>
       <c r="AE2" t="n">
-        <v>3394857.074077047</v>
+        <v>3608776.162082884</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.861664746894279e-07</v>
+        <v>1.315818261466804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.55598958333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3070856.679638834</v>
+        <v>3264359.630122712</v>
       </c>
     </row>
     <row r="3">
@@ -17217,28 +17217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1507.715153279962</v>
+        <v>1622.894791933011</v>
       </c>
       <c r="AB3" t="n">
-        <v>2062.922388415765</v>
+        <v>2220.516251387898</v>
       </c>
       <c r="AC3" t="n">
-        <v>1866.03997099512</v>
+        <v>2008.593296869569</v>
       </c>
       <c r="AD3" t="n">
-        <v>1507715.153279962</v>
+        <v>1622894.791933011</v>
       </c>
       <c r="AE3" t="n">
-        <v>2062922.388415765</v>
+        <v>2220516.251387898</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>1.785109535854066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.94661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1866039.97099512</v>
+        <v>2008593.296869569</v>
       </c>
     </row>
     <row r="4">
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1300.750438644041</v>
+        <v>1407.696864475117</v>
       </c>
       <c r="AB4" t="n">
-        <v>1779.744135212096</v>
+        <v>1926.072953177492</v>
       </c>
       <c r="AC4" t="n">
-        <v>1609.887852834035</v>
+        <v>1742.2512537866</v>
       </c>
       <c r="AD4" t="n">
-        <v>1300750.438644041</v>
+        <v>1407696.864475117</v>
       </c>
       <c r="AE4" t="n">
-        <v>1779744.135212096</v>
+        <v>1926072.953177492</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317457378822385e-06</v>
+        <v>1.956217626452444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.58984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1609887.852834035</v>
+        <v>1742251.253786599</v>
       </c>
     </row>
     <row r="5">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1206.849760003971</v>
+        <v>1305.648313867646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1651.265084091181</v>
+        <v>1786.445624172037</v>
       </c>
       <c r="AC5" t="n">
-        <v>1493.670662030619</v>
+        <v>1615.949761093238</v>
       </c>
       <c r="AD5" t="n">
-        <v>1206849.760003971</v>
+        <v>1305648.313867646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1651265.084091181</v>
+        <v>1786445.624172037</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376269774840515e-06</v>
+        <v>2.04354481258685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.53841145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1493670.662030619</v>
+        <v>1615949.761093238</v>
       </c>
     </row>
     <row r="6">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1145.024201381596</v>
+        <v>1243.737414390699</v>
       </c>
       <c r="AB6" t="n">
-        <v>1566.672627232901</v>
+        <v>1701.736400191559</v>
       </c>
       <c r="AC6" t="n">
-        <v>1417.151590528635</v>
+        <v>1539.325066559315</v>
       </c>
       <c r="AD6" t="n">
-        <v>1145024.201381596</v>
+        <v>1243737.414390699</v>
       </c>
       <c r="AE6" t="n">
-        <v>1566672.627232901</v>
+        <v>1701736.400191559</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413786311725177e-06</v>
+        <v>2.099250987159897e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.91341145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1417151.590528635</v>
+        <v>1539325.066559315</v>
       </c>
     </row>
     <row r="7">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1108.371716391705</v>
+        <v>1207.084929400809</v>
       </c>
       <c r="AB7" t="n">
-        <v>1516.523080276218</v>
+        <v>1651.586853234875</v>
       </c>
       <c r="AC7" t="n">
-        <v>1371.788245948166</v>
+        <v>1493.961721978846</v>
       </c>
       <c r="AD7" t="n">
-        <v>1108371.716391705</v>
+        <v>1207084.929400809</v>
       </c>
       <c r="AE7" t="n">
-        <v>1516523.080276218</v>
+        <v>1651586.853234875</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438465625113496e-06</v>
+        <v>2.135895897754368e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.51953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1371788.245948166</v>
+        <v>1493961.721978846</v>
       </c>
     </row>
     <row r="8">
@@ -17747,28 +17747,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1078.494672655044</v>
+        <v>1168.974762350726</v>
       </c>
       <c r="AB8" t="n">
-        <v>1475.643990953575</v>
+        <v>1599.442841375043</v>
       </c>
       <c r="AC8" t="n">
-        <v>1334.810599536313</v>
+        <v>1446.794261426335</v>
       </c>
       <c r="AD8" t="n">
-        <v>1078494.672655045</v>
+        <v>1168974.762350726</v>
       </c>
       <c r="AE8" t="n">
-        <v>1475643.990953574</v>
+        <v>1599442.841375043</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.456875596794298e-06</v>
+        <v>2.163231818963953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.236328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1334810.599536313</v>
+        <v>1446794.261426335</v>
       </c>
     </row>
     <row r="9">
@@ -17853,28 +17853,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1054.860743634594</v>
+        <v>1145.340833330275</v>
       </c>
       <c r="AB9" t="n">
-        <v>1443.307006612432</v>
+        <v>1567.1058570339</v>
       </c>
       <c r="AC9" t="n">
-        <v>1305.559811595447</v>
+        <v>1417.543473485468</v>
       </c>
       <c r="AD9" t="n">
-        <v>1054860.743634593</v>
+        <v>1145340.833330275</v>
       </c>
       <c r="AE9" t="n">
-        <v>1443307.006612432</v>
+        <v>1567105.8570339</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470608440534572e-06</v>
+        <v>2.183622938568942e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.02799479166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1305559.811595447</v>
+        <v>1417543.473485468</v>
       </c>
     </row>
     <row r="10">
@@ -17959,28 +17959,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1024.66396118649</v>
+        <v>1123.291833341022</v>
       </c>
       <c r="AB10" t="n">
-        <v>1401.990436678917</v>
+        <v>1536.937442515377</v>
       </c>
       <c r="AC10" t="n">
-        <v>1268.186437108216</v>
+        <v>1390.254290106957</v>
       </c>
       <c r="AD10" t="n">
-        <v>1024663.96118649</v>
+        <v>1123291.833341022</v>
       </c>
       <c r="AE10" t="n">
-        <v>1401990.436678917</v>
+        <v>1536937.442515377</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.481952963624364e-06</v>
+        <v>2.200467776503497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.85872395833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1268186.437108216</v>
+        <v>1390254.290106957</v>
       </c>
     </row>
     <row r="11">
@@ -18065,28 +18065,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1004.914019822697</v>
+        <v>1095.479360864399</v>
       </c>
       <c r="AB11" t="n">
-        <v>1374.967695599055</v>
+        <v>1498.883190673173</v>
       </c>
       <c r="AC11" t="n">
-        <v>1243.742708510361</v>
+        <v>1355.831882651095</v>
       </c>
       <c r="AD11" t="n">
-        <v>1004914.019822697</v>
+        <v>1095479.360864399</v>
       </c>
       <c r="AE11" t="n">
-        <v>1374967.695599055</v>
+        <v>1498883.190673173</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.4907101393428e-06</v>
+        <v>2.213470809295084e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.73177083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1243742.708510361</v>
+        <v>1355831.882651095</v>
       </c>
     </row>
     <row r="12">
@@ -18171,28 +18171,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>986.9879969516527</v>
+        <v>1077.553337993354</v>
       </c>
       <c r="AB12" t="n">
-        <v>1350.440520266578</v>
+        <v>1474.356015340696</v>
       </c>
       <c r="AC12" t="n">
-        <v>1221.556372367509</v>
+        <v>1333.645546508243</v>
       </c>
       <c r="AD12" t="n">
-        <v>986987.9969516527</v>
+        <v>1077553.337993355</v>
       </c>
       <c r="AE12" t="n">
-        <v>1350440.520266578</v>
+        <v>1474356.015340696</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.497875101294247e-06</v>
+        <v>2.224109654306382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.62760416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1221556.372367509</v>
+        <v>1333645.546508243</v>
       </c>
     </row>
     <row r="13">
@@ -18277,28 +18277,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>971.1665301000291</v>
+        <v>1061.731871141731</v>
       </c>
       <c r="AB13" t="n">
-        <v>1328.792891326331</v>
+        <v>1452.708386400449</v>
       </c>
       <c r="AC13" t="n">
-        <v>1201.974762750682</v>
+        <v>1314.063936891415</v>
       </c>
       <c r="AD13" t="n">
-        <v>971166.5301000292</v>
+        <v>1061731.871141731</v>
       </c>
       <c r="AE13" t="n">
-        <v>1328792.891326331</v>
+        <v>1452708.386400449</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.503447849478706e-06</v>
+        <v>2.232384311537392e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.54622395833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1201974.762750682</v>
+        <v>1314063.936891415</v>
       </c>
     </row>
     <row r="14">
@@ -18383,28 +18383,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>968.5395575505192</v>
+        <v>1059.104898592221</v>
       </c>
       <c r="AB14" t="n">
-        <v>1325.198551590242</v>
+        <v>1449.11404666436</v>
       </c>
       <c r="AC14" t="n">
-        <v>1198.723461754317</v>
+        <v>1310.812635895051</v>
       </c>
       <c r="AD14" t="n">
-        <v>968539.5575505192</v>
+        <v>1059104.898592221</v>
       </c>
       <c r="AE14" t="n">
-        <v>1325198.551590242</v>
+        <v>1449114.04666436</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5042439563622e-06</v>
+        <v>2.233566405427536e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1198723.461754317</v>
+        <v>1310812.635895051</v>
       </c>
     </row>
     <row r="15">
@@ -18489,28 +18489,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>972.8454063412717</v>
+        <v>1063.410747382974</v>
       </c>
       <c r="AB15" t="n">
-        <v>1331.090003866392</v>
+        <v>1455.005498940509</v>
       </c>
       <c r="AC15" t="n">
-        <v>1204.052642093936</v>
+        <v>1316.14181623467</v>
       </c>
       <c r="AD15" t="n">
-        <v>972845.4063412717</v>
+        <v>1063410.747382974</v>
       </c>
       <c r="AE15" t="n">
-        <v>1331090.003866392</v>
+        <v>1455005.498940509</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.504144443001764e-06</v>
+        <v>2.233418643691268e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1204052.642093936</v>
+        <v>1316141.81623467</v>
       </c>
     </row>
   </sheetData>
@@ -18786,28 +18786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2980.007513922033</v>
+        <v>3155.365460767471</v>
       </c>
       <c r="AB2" t="n">
-        <v>4077.377749201282</v>
+        <v>4317.310228321841</v>
       </c>
       <c r="AC2" t="n">
-        <v>3688.23853945297</v>
+        <v>3905.272199513604</v>
       </c>
       <c r="AD2" t="n">
-        <v>2980007.513922033</v>
+        <v>3155365.460767471</v>
       </c>
       <c r="AE2" t="n">
-        <v>4077377.749201282</v>
+        <v>4317310.228321841</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.014768568212999e-07</v>
+        <v>1.178525616319293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.60286458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3688238.53945297</v>
+        <v>3905272.199513604</v>
       </c>
     </row>
     <row r="3">
@@ -18892,28 +18892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1693.912017754456</v>
+        <v>1819.118927870013</v>
       </c>
       <c r="AB3" t="n">
-        <v>2317.685152815683</v>
+        <v>2488.998770974816</v>
       </c>
       <c r="AC3" t="n">
-        <v>2096.488534722495</v>
+        <v>2251.452221604694</v>
       </c>
       <c r="AD3" t="n">
-        <v>1693912.017754456</v>
+        <v>1819118.927870013</v>
       </c>
       <c r="AE3" t="n">
-        <v>2317685.152815683</v>
+        <v>2488998.770974816</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135230540629002e-06</v>
+        <v>1.669291210560283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.958984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2096488.534722495</v>
+        <v>2251452.221604695</v>
       </c>
     </row>
     <row r="4">
@@ -18998,28 +18998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1442.536457631802</v>
+        <v>1551.026445012616</v>
       </c>
       <c r="AB4" t="n">
-        <v>1973.742021548841</v>
+        <v>2122.182808523719</v>
       </c>
       <c r="AC4" t="n">
-        <v>1785.370853176545</v>
+        <v>1919.644659780493</v>
       </c>
       <c r="AD4" t="n">
-        <v>1442536.457631802</v>
+        <v>1551026.445012616</v>
       </c>
       <c r="AE4" t="n">
-        <v>1973742.021548841</v>
+        <v>2122182.808523719</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258474670437046e-06</v>
+        <v>1.850514614334928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.22135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1785370.853176545</v>
+        <v>1919644.659780493</v>
       </c>
     </row>
     <row r="5">
@@ -19104,28 +19104,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1319.656046515284</v>
+        <v>1428.145944387548</v>
       </c>
       <c r="AB5" t="n">
-        <v>1805.611621958085</v>
+        <v>1954.052286463414</v>
       </c>
       <c r="AC5" t="n">
-        <v>1633.286582950232</v>
+        <v>1767.560278772954</v>
       </c>
       <c r="AD5" t="n">
-        <v>1319656.046515284</v>
+        <v>1428145.944387548</v>
       </c>
       <c r="AE5" t="n">
-        <v>1805611.621958085</v>
+        <v>1954052.286463414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.324581885634715e-06</v>
+        <v>1.947721471739367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.96158854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1633286.582950232</v>
+        <v>1767560.278772954</v>
       </c>
     </row>
     <row r="6">
@@ -19210,28 +19210,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1260.804210369693</v>
+        <v>1360.93569162886</v>
       </c>
       <c r="AB6" t="n">
-        <v>1725.087943383918</v>
+        <v>1862.092253531894</v>
       </c>
       <c r="AC6" t="n">
-        <v>1560.447971243491</v>
+        <v>1684.376782317702</v>
       </c>
       <c r="AD6" t="n">
-        <v>1260804.210369693</v>
+        <v>1360935.691628861</v>
       </c>
       <c r="AE6" t="n">
-        <v>1725087.943383918</v>
+        <v>1862092.253531894</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.363388186001489e-06</v>
+        <v>2.004783904257016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1560447.971243491</v>
+        <v>1684376.782317702</v>
       </c>
     </row>
     <row r="7">
@@ -19316,28 +19316,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1209.534578054663</v>
+        <v>1309.751310659852</v>
       </c>
       <c r="AB7" t="n">
-        <v>1654.938570593951</v>
+        <v>1792.059525394577</v>
       </c>
       <c r="AC7" t="n">
-        <v>1496.993556137335</v>
+        <v>1621.027879462258</v>
       </c>
       <c r="AD7" t="n">
-        <v>1209534.578054663</v>
+        <v>1309751.310659852</v>
       </c>
       <c r="AE7" t="n">
-        <v>1654938.570593951</v>
+        <v>1792059.525394577</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.04578856681995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1496993.556137335</v>
+        <v>1621027.879462258</v>
       </c>
     </row>
     <row r="8">
@@ -19422,28 +19422,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1178.596952793999</v>
+        <v>1278.643093198596</v>
       </c>
       <c r="AB8" t="n">
-        <v>1612.608346840612</v>
+        <v>1749.49588986639</v>
       </c>
       <c r="AC8" t="n">
-        <v>1458.703269528173</v>
+        <v>1582.526457570445</v>
       </c>
       <c r="AD8" t="n">
-        <v>1178596.952793999</v>
+        <v>1278643.093198596</v>
       </c>
       <c r="AE8" t="n">
-        <v>1612608.346840612</v>
+        <v>1749495.88986639</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410677270619291e-06</v>
+        <v>2.074319783078775e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1458703.269528173</v>
+        <v>1582526.457570445</v>
       </c>
     </row>
     <row r="9">
@@ -19528,28 +19528,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1154.163389942722</v>
+        <v>1246.021705934815</v>
       </c>
       <c r="AB9" t="n">
-        <v>1579.177268214778</v>
+        <v>1704.86186865805</v>
       </c>
       <c r="AC9" t="n">
-        <v>1428.462806125575</v>
+        <v>1542.152244701986</v>
       </c>
       <c r="AD9" t="n">
-        <v>1154163.389942722</v>
+        <v>1246021.705934815</v>
       </c>
       <c r="AE9" t="n">
-        <v>1579177.268214778</v>
+        <v>1704861.86865805</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424815244371004e-06</v>
+        <v>2.09510886025229e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.275390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1428462.806125575</v>
+        <v>1542152.244701986</v>
       </c>
     </row>
     <row r="10">
@@ -19634,28 +19634,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1131.416225809645</v>
+        <v>1223.274541801738</v>
       </c>
       <c r="AB10" t="n">
-        <v>1548.053594713847</v>
+        <v>1673.738195157119</v>
       </c>
       <c r="AC10" t="n">
-        <v>1400.309532341223</v>
+        <v>1513.998970917633</v>
       </c>
       <c r="AD10" t="n">
-        <v>1131416.225809645</v>
+        <v>1223274.541801739</v>
       </c>
       <c r="AE10" t="n">
-        <v>1548053.594713847</v>
+        <v>1673738.195157119</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.437588172381173e-06</v>
+        <v>2.113890716181466e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.07682291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1400309.532341223</v>
+        <v>1513998.970917634</v>
       </c>
     </row>
     <row r="11">
@@ -19740,28 +19740,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1105.267469098637</v>
+        <v>1205.398860849254</v>
       </c>
       <c r="AB11" t="n">
-        <v>1512.275712180116</v>
+        <v>1649.279899858544</v>
       </c>
       <c r="AC11" t="n">
-        <v>1367.946240701938</v>
+        <v>1491.874940994921</v>
       </c>
       <c r="AD11" t="n">
-        <v>1105267.469098637</v>
+        <v>1205398.860849254</v>
       </c>
       <c r="AE11" t="n">
-        <v>1512275.712180116</v>
+        <v>1649279.899858544</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446070956632202e-06</v>
+        <v>2.126364162485576e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.94661458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1367946.240701938</v>
+        <v>1491874.940994921</v>
       </c>
     </row>
     <row r="12">
@@ -19846,28 +19846,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1086.338695525021</v>
+        <v>1186.470087275638</v>
       </c>
       <c r="AB12" t="n">
-        <v>1486.376529098142</v>
+        <v>1623.38071677657</v>
       </c>
       <c r="AC12" t="n">
-        <v>1344.518839303576</v>
+        <v>1468.447539596559</v>
       </c>
       <c r="AD12" t="n">
-        <v>1086338.695525021</v>
+        <v>1186470.087275638</v>
       </c>
       <c r="AE12" t="n">
-        <v>1486376.529098142</v>
+        <v>1623380.71677657</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.455041257219496e-06</v>
+        <v>2.139554473519806e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.81315104166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1344518.839303576</v>
+        <v>1468447.539596559</v>
       </c>
     </row>
     <row r="13">
@@ -19952,28 +19952,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1071.131613902456</v>
+        <v>1163.07518124057</v>
       </c>
       <c r="AB13" t="n">
-        <v>1465.569529133056</v>
+        <v>1591.370774228978</v>
       </c>
       <c r="AC13" t="n">
-        <v>1325.69763021235</v>
+        <v>1439.492581039473</v>
       </c>
       <c r="AD13" t="n">
-        <v>1071131.613902456</v>
+        <v>1163075.18124057</v>
       </c>
       <c r="AE13" t="n">
-        <v>1465569.529133057</v>
+        <v>1591370.774228978</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.461281466323701e-06</v>
+        <v>2.148730342065358e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1325697.63021235</v>
+        <v>1439492.581039473</v>
       </c>
     </row>
     <row r="14">
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1054.659423029138</v>
+        <v>1146.602990367252</v>
       </c>
       <c r="AB14" t="n">
-        <v>1443.031550878409</v>
+        <v>1568.832795974331</v>
       </c>
       <c r="AC14" t="n">
-        <v>1305.310644970075</v>
+        <v>1419.105595797199</v>
       </c>
       <c r="AD14" t="n">
-        <v>1054659.423029138</v>
+        <v>1146602.990367252</v>
       </c>
       <c r="AE14" t="n">
-        <v>1443031.55087841</v>
+        <v>1568832.795974331</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.467619178695159e-06</v>
+        <v>2.158049583556934e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.62760416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1305310.644970075</v>
+        <v>1419105.595797199</v>
       </c>
     </row>
     <row r="15">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1042.39912234635</v>
+        <v>1134.342689684464</v>
       </c>
       <c r="AB15" t="n">
-        <v>1426.256466597927</v>
+        <v>1552.057711693848</v>
       </c>
       <c r="AC15" t="n">
-        <v>1290.136551189343</v>
+        <v>1403.931502016466</v>
       </c>
       <c r="AD15" t="n">
-        <v>1042399.12234635</v>
+        <v>1134342.689684464</v>
       </c>
       <c r="AE15" t="n">
-        <v>1426256.466597927</v>
+        <v>1552057.711693848</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.471519309385287e-06</v>
+        <v>2.163784501397904e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.56901041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1290136.551189343</v>
+        <v>1403931.502016466</v>
       </c>
     </row>
     <row r="16">
@@ -20270,28 +20270,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1027.382621959588</v>
+        <v>1119.326189297701</v>
       </c>
       <c r="AB16" t="n">
-        <v>1405.710228287516</v>
+        <v>1531.511473383438</v>
       </c>
       <c r="AC16" t="n">
-        <v>1271.551217026452</v>
+        <v>1385.346167853575</v>
       </c>
       <c r="AD16" t="n">
-        <v>1027382.621959588</v>
+        <v>1119326.189297701</v>
       </c>
       <c r="AE16" t="n">
-        <v>1405710.228287516</v>
+        <v>1531511.473383438</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.475906956411681e-06</v>
+        <v>2.170236283968995e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.50390625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1271551.217026452</v>
+        <v>1385346.167853575</v>
       </c>
     </row>
     <row r="17">
@@ -20376,28 +20376,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1023.816625557244</v>
+        <v>1115.589600694765</v>
       </c>
       <c r="AB17" t="n">
-        <v>1400.831074689171</v>
+        <v>1526.398908010246</v>
       </c>
       <c r="AC17" t="n">
-        <v>1267.137722999598</v>
+        <v>1380.72153854407</v>
       </c>
       <c r="AD17" t="n">
-        <v>1023816.625557244</v>
+        <v>1115589.600694765</v>
       </c>
       <c r="AE17" t="n">
-        <v>1400831.074689171</v>
+        <v>1526398.908010246</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477272002153226e-06</v>
+        <v>2.172243505213334e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.484375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1267137.722999598</v>
+        <v>1380721.53854407</v>
       </c>
     </row>
     <row r="18">
@@ -20482,28 +20482,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1028.227209143776</v>
+        <v>1120.000184281298</v>
       </c>
       <c r="AB18" t="n">
-        <v>1406.86582973348</v>
+        <v>1532.433663054554</v>
       </c>
       <c r="AC18" t="n">
-        <v>1272.59652949231</v>
+        <v>1386.180345036781</v>
       </c>
       <c r="AD18" t="n">
-        <v>1028227.209143776</v>
+        <v>1120000.184281297</v>
       </c>
       <c r="AE18" t="n">
-        <v>1406865.82973348</v>
+        <v>1532433.663054554</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.477174498885972e-06</v>
+        <v>2.17210013226731e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.48763020833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1272596.52949231</v>
+        <v>1386180.345036781</v>
       </c>
     </row>
   </sheetData>
@@ -20779,28 +20779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4277.598125646483</v>
+        <v>4491.891983290998</v>
       </c>
       <c r="AB2" t="n">
-        <v>5852.798469820368</v>
+        <v>6146.004779827383</v>
       </c>
       <c r="AC2" t="n">
-        <v>5294.215598314736</v>
+        <v>5559.43870961231</v>
       </c>
       <c r="AD2" t="n">
-        <v>4277598.125646483</v>
+        <v>4491891.983290998</v>
       </c>
       <c r="AE2" t="n">
-        <v>5852798.469820368</v>
+        <v>6146004.779827382</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.534224280899115e-07</v>
+        <v>9.453536041990612e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.884765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>5294215.598314736</v>
+        <v>5559438.70961231</v>
       </c>
     </row>
     <row r="3">
@@ -20885,28 +20885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2110.241506491153</v>
+        <v>2238.886183270074</v>
       </c>
       <c r="AB3" t="n">
-        <v>2887.325526465985</v>
+        <v>3063.342848637668</v>
       </c>
       <c r="AC3" t="n">
-        <v>2611.763230606899</v>
+        <v>2770.981706592265</v>
       </c>
       <c r="AD3" t="n">
-        <v>2110241.506491154</v>
+        <v>2238886.183270073</v>
       </c>
       <c r="AE3" t="n">
-        <v>2887325.526465985</v>
+        <v>3063342.848637668</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014719950981625e-06</v>
+        <v>1.468068927045121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.19205729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2611763.230606899</v>
+        <v>2770981.706592265</v>
       </c>
     </row>
     <row r="4">
@@ -20991,28 +20991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1725.327921441771</v>
+        <v>1845.390513503808</v>
       </c>
       <c r="AB4" t="n">
-        <v>2360.669778212521</v>
+        <v>2524.944713459533</v>
       </c>
       <c r="AC4" t="n">
-        <v>2135.37076780076</v>
+        <v>2283.967533789117</v>
       </c>
       <c r="AD4" t="n">
-        <v>1725327.921441771</v>
+        <v>1845390.513503808</v>
       </c>
       <c r="AE4" t="n">
-        <v>2360669.778212521</v>
+        <v>2524944.713459533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15419453522896e-06</v>
+        <v>1.669856920912759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.54296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2135370.76780076</v>
+        <v>2283967.533789117</v>
       </c>
     </row>
     <row r="5">
@@ -21097,28 +21097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1562.583539985403</v>
+        <v>1674.064136839111</v>
       </c>
       <c r="AB5" t="n">
-        <v>2137.995735728531</v>
+        <v>2290.5284065206</v>
       </c>
       <c r="AC5" t="n">
-        <v>1933.948423406461</v>
+        <v>2071.923590179083</v>
       </c>
       <c r="AD5" t="n">
-        <v>1562583.539985403</v>
+        <v>1674064.136839111</v>
       </c>
       <c r="AE5" t="n">
-        <v>2137995.735728531</v>
+        <v>2290528.406520599</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227978660768712e-06</v>
+        <v>1.776605765172022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1933948.423406461</v>
+        <v>2071923.590179082</v>
       </c>
     </row>
     <row r="6">
@@ -21203,28 +21203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1480.070648395993</v>
+        <v>1582.969339549923</v>
       </c>
       <c r="AB6" t="n">
-        <v>2025.097957244037</v>
+        <v>2165.888486050711</v>
       </c>
       <c r="AC6" t="n">
-        <v>1831.825450447499</v>
+        <v>1959.179128785612</v>
       </c>
       <c r="AD6" t="n">
-        <v>1480070.648395993</v>
+        <v>1582969.339549923</v>
       </c>
       <c r="AE6" t="n">
-        <v>2025097.957244037</v>
+        <v>2165888.486050711</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274470188851157e-06</v>
+        <v>1.843868429794568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1831825.450447499</v>
+        <v>1959179.128785613</v>
       </c>
     </row>
     <row r="7">
@@ -21309,28 +21309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1419.161065486273</v>
+        <v>1521.974415785631</v>
       </c>
       <c r="AB7" t="n">
-        <v>1941.758778765809</v>
+        <v>2082.432540450285</v>
       </c>
       <c r="AC7" t="n">
-        <v>1756.440046195961</v>
+        <v>1883.688101502136</v>
       </c>
       <c r="AD7" t="n">
-        <v>1419161.065486273</v>
+        <v>1521974.415785631</v>
       </c>
       <c r="AE7" t="n">
-        <v>1941758.778765809</v>
+        <v>2082432.540450284</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305056720484344e-06</v>
+        <v>1.888120182835717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1756440.046195962</v>
+        <v>1883688.101502136</v>
       </c>
     </row>
     <row r="8">
@@ -21415,28 +21415,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1380.386997129267</v>
+        <v>1474.789033929439</v>
       </c>
       <c r="AB8" t="n">
-        <v>1888.706387848584</v>
+        <v>2017.871419322512</v>
       </c>
       <c r="AC8" t="n">
-        <v>1708.450901008379</v>
+        <v>1825.288603162695</v>
       </c>
       <c r="AD8" t="n">
-        <v>1380386.997129267</v>
+        <v>1474789.033929439</v>
       </c>
       <c r="AE8" t="n">
-        <v>1888706.387848584</v>
+        <v>2017871.419322512</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.328020147310491e-06</v>
+        <v>1.92134303742661e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.06966145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1708450.901008379</v>
+        <v>1825288.603162695</v>
       </c>
     </row>
     <row r="9">
@@ -21521,28 +21521,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1341.446058054035</v>
+        <v>1444.344659699413</v>
       </c>
       <c r="AB9" t="n">
-        <v>1835.425677052867</v>
+        <v>1976.216083389992</v>
       </c>
       <c r="AC9" t="n">
-        <v>1660.255226471058</v>
+        <v>1787.608794027944</v>
       </c>
       <c r="AD9" t="n">
-        <v>1341446.058054035</v>
+        <v>1444344.659699413</v>
       </c>
       <c r="AE9" t="n">
-        <v>1835425.677052867</v>
+        <v>1976216.083389992</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>1.946804815330286e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.76692708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1660255.226471058</v>
+        <v>1787608.794027944</v>
       </c>
     </row>
     <row r="10">
@@ -21627,28 +21627,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1316.556252747695</v>
+        <v>1419.454854393073</v>
       </c>
       <c r="AB10" t="n">
-        <v>1801.37034737202</v>
+        <v>1942.160753709145</v>
       </c>
       <c r="AC10" t="n">
-        <v>1629.450089657994</v>
+        <v>1756.803657214881</v>
       </c>
       <c r="AD10" t="n">
-        <v>1316556.252747695</v>
+        <v>1419454.854393073</v>
       </c>
       <c r="AE10" t="n">
-        <v>1801370.34737202</v>
+        <v>1942160.753709144</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.360018365019057e-06</v>
+        <v>1.967637179069658e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.52604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1629450.089657994</v>
+        <v>1756803.657214881</v>
       </c>
     </row>
     <row r="11">
@@ -21733,28 +21733,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1296.739237319731</v>
+        <v>1391.055933265331</v>
       </c>
       <c r="AB11" t="n">
-        <v>1774.255832598462</v>
+        <v>1903.304096950191</v>
       </c>
       <c r="AC11" t="n">
-        <v>1604.923346118965</v>
+        <v>1721.655425241342</v>
       </c>
       <c r="AD11" t="n">
-        <v>1296739.237319731</v>
+        <v>1391055.933265331</v>
       </c>
       <c r="AE11" t="n">
-        <v>1774255.832598462</v>
+        <v>1903304.096950191</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.370370729571828e-06</v>
+        <v>1.982614695483585e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.353515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1604923.346118965</v>
+        <v>1721655.425241342</v>
       </c>
     </row>
     <row r="12">
@@ -21839,28 +21839,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1281.24443050356</v>
+        <v>1375.561126449161</v>
       </c>
       <c r="AB12" t="n">
-        <v>1753.055154329945</v>
+        <v>1882.103418681675</v>
       </c>
       <c r="AC12" t="n">
-        <v>1585.746030829057</v>
+        <v>1702.478109951434</v>
       </c>
       <c r="AD12" t="n">
-        <v>1281244.43050356</v>
+        <v>1375561.126449161</v>
       </c>
       <c r="AE12" t="n">
-        <v>1753055.154329945</v>
+        <v>1882103.418681675</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.37874673361907e-06</v>
+        <v>1.994732867854854e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.22005208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1585746.030829057</v>
+        <v>1702478.109951434</v>
       </c>
     </row>
     <row r="13">
@@ -21945,28 +21945,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1264.146661084954</v>
+        <v>1358.463357030554</v>
       </c>
       <c r="AB13" t="n">
-        <v>1729.661231911057</v>
+        <v>1858.709496262786</v>
       </c>
       <c r="AC13" t="n">
-        <v>1564.584791532251</v>
+        <v>1681.316870654628</v>
       </c>
       <c r="AD13" t="n">
-        <v>1264146.661084954</v>
+        <v>1358463.357030554</v>
       </c>
       <c r="AE13" t="n">
-        <v>1729661.231911057</v>
+        <v>1858709.496262786</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.386840400451236e-06</v>
+        <v>2.006442562505742e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.08984375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1564584.791532251</v>
+        <v>1681316.870654628</v>
       </c>
     </row>
     <row r="14">
@@ -22051,28 +22051,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1241.66583773573</v>
+        <v>1344.479098526537</v>
       </c>
       <c r="AB14" t="n">
-        <v>1698.901977620719</v>
+        <v>1839.575616835647</v>
       </c>
       <c r="AC14" t="n">
-        <v>1536.761157300498</v>
+        <v>1664.009101825445</v>
       </c>
       <c r="AD14" t="n">
-        <v>1241665.83773573</v>
+        <v>1344479.098526537</v>
       </c>
       <c r="AE14" t="n">
-        <v>1698901.977620719</v>
+        <v>1839575.616835647</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.392675369562798e-06</v>
+        <v>2.014884435393592e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.99869791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1536761.157300498</v>
+        <v>1664009.101825445</v>
       </c>
     </row>
     <row r="15">
@@ -22157,28 +22157,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1227.496985077216</v>
+        <v>1330.310245868023</v>
       </c>
       <c r="AB15" t="n">
-        <v>1679.515528327678</v>
+        <v>1820.189167542605</v>
       </c>
       <c r="AC15" t="n">
-        <v>1519.224923518932</v>
+        <v>1646.47286804388</v>
       </c>
       <c r="AD15" t="n">
-        <v>1227496.985077216</v>
+        <v>1330310.245868023</v>
       </c>
       <c r="AE15" t="n">
-        <v>1679515.528327678</v>
+        <v>1820189.167542605</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.399357350319587e-06</v>
+        <v>2.024551741442581e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.89453125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1519224.923518932</v>
+        <v>1646472.86804388</v>
       </c>
     </row>
     <row r="16">
@@ -22263,28 +22263,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1215.644539463427</v>
+        <v>1318.457800254234</v>
       </c>
       <c r="AB16" t="n">
-        <v>1663.298489345895</v>
+        <v>1803.972128560822</v>
       </c>
       <c r="AC16" t="n">
-        <v>1504.555615976813</v>
+        <v>1631.803560501761</v>
       </c>
       <c r="AD16" t="n">
-        <v>1215644.539463427</v>
+        <v>1318457.800254234</v>
       </c>
       <c r="AE16" t="n">
-        <v>1663298.489345895</v>
+        <v>1803972.128560822</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403780633355771e-06</v>
+        <v>2.030951225728532e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1504555.615976813</v>
+        <v>1631803.560501761</v>
       </c>
     </row>
     <row r="17">
@@ -22369,28 +22369,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1203.37405156224</v>
+        <v>1297.775998853861</v>
       </c>
       <c r="AB17" t="n">
-        <v>1646.50946646377</v>
+        <v>1775.674375468149</v>
       </c>
       <c r="AC17" t="n">
-        <v>1489.368913875017</v>
+        <v>1606.206505248107</v>
       </c>
       <c r="AD17" t="n">
-        <v>1203374.05156224</v>
+        <v>1297775.998853861</v>
       </c>
       <c r="AE17" t="n">
-        <v>1646509.46646377</v>
+        <v>1775674.375468149</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.408862703227132e-06</v>
+        <v>2.038303824695369e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1489368.913875017</v>
+        <v>1606206.505248107</v>
       </c>
     </row>
     <row r="18">
@@ -22475,28 +22475,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1192.505925727303</v>
+        <v>1286.907873018924</v>
       </c>
       <c r="AB18" t="n">
-        <v>1631.639217228537</v>
+        <v>1760.804126232915</v>
       </c>
       <c r="AC18" t="n">
-        <v>1475.917860356268</v>
+        <v>1592.755451729358</v>
       </c>
       <c r="AD18" t="n">
-        <v>1192505.925727303</v>
+        <v>1286907.873018924</v>
       </c>
       <c r="AE18" t="n">
-        <v>1631639.217228537</v>
+        <v>1760804.126232916</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.411686075377887e-06</v>
+        <v>2.042388601899167e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.70247395833333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1475917.860356268</v>
+        <v>1592755.451729358</v>
       </c>
     </row>
     <row r="19">
@@ -22581,28 +22581,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1182.63505634371</v>
+        <v>1277.037003635331</v>
       </c>
       <c r="AB19" t="n">
-        <v>1618.133458265882</v>
+        <v>1747.298367270261</v>
       </c>
       <c r="AC19" t="n">
-        <v>1463.701072073558</v>
+        <v>1580.538663446647</v>
       </c>
       <c r="AD19" t="n">
-        <v>1182635.05634371</v>
+        <v>1277037.003635331</v>
       </c>
       <c r="AE19" t="n">
-        <v>1618133.458265882</v>
+        <v>1747298.367270261</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.414509447528643e-06</v>
+        <v>2.046473379102966e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.65690104166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1463701.072073558</v>
+        <v>1580538.663446647</v>
       </c>
     </row>
     <row r="20">
@@ -22687,28 +22687,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1171.718030443578</v>
+        <v>1266.119977735199</v>
       </c>
       <c r="AB20" t="n">
-        <v>1603.19630180413</v>
+        <v>1732.361210808509</v>
       </c>
       <c r="AC20" t="n">
-        <v>1450.189496860085</v>
+        <v>1567.027088233174</v>
       </c>
       <c r="AD20" t="n">
-        <v>1171718.030443578</v>
+        <v>1266119.977735199</v>
       </c>
       <c r="AE20" t="n">
-        <v>1603196.30180413</v>
+        <v>1732361.210808509</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.417521044489449e-06</v>
+        <v>2.050830474787017e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.611328125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1450189.496860085</v>
+        <v>1567027.088233175</v>
       </c>
     </row>
     <row r="21">
@@ -22793,28 +22793,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1162.334017561026</v>
+        <v>1256.735964852647</v>
       </c>
       <c r="AB21" t="n">
-        <v>1590.356681384792</v>
+        <v>1719.521590389171</v>
       </c>
       <c r="AC21" t="n">
-        <v>1438.575271793048</v>
+        <v>1555.412863166137</v>
       </c>
       <c r="AD21" t="n">
-        <v>1162334.017561026</v>
+        <v>1256735.964852647</v>
       </c>
       <c r="AE21" t="n">
-        <v>1590356.681384792</v>
+        <v>1719521.590389171</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.421191428285432e-06</v>
+        <v>2.056140685151955e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1438575.271793048</v>
+        <v>1555412.863166137</v>
       </c>
     </row>
     <row r="22">
@@ -22899,28 +22899,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1150.422930794391</v>
+        <v>1244.824878086012</v>
       </c>
       <c r="AB22" t="n">
-        <v>1574.05940699062</v>
+        <v>1703.224315994999</v>
       </c>
       <c r="AC22" t="n">
-        <v>1423.833386393688</v>
+        <v>1540.670977766777</v>
       </c>
       <c r="AD22" t="n">
-        <v>1150422.930794391</v>
+        <v>1244824.878086012</v>
       </c>
       <c r="AE22" t="n">
-        <v>1574059.40699062</v>
+        <v>1703224.315994999</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.424297137651263e-06</v>
+        <v>2.060633940076133e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1423833.386393688</v>
+        <v>1540670.977766777</v>
       </c>
     </row>
     <row r="23">
@@ -23005,28 +23005,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1144.231491276946</v>
+        <v>1238.462846367975</v>
       </c>
       <c r="AB23" t="n">
-        <v>1565.588006295818</v>
+        <v>1694.519503525351</v>
       </c>
       <c r="AC23" t="n">
-        <v>1416.170484291512</v>
+        <v>1532.79694038195</v>
       </c>
       <c r="AD23" t="n">
-        <v>1144231.491276946</v>
+        <v>1238462.846367975</v>
       </c>
       <c r="AE23" t="n">
-        <v>1565588.006295818</v>
+        <v>1694519.50352535</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.425614711321616e-06</v>
+        <v>2.062540169437906e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.49088541666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1416170.484291512</v>
+        <v>1532796.94038195</v>
       </c>
     </row>
     <row r="24">
@@ -23111,28 +23111,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1139.750186083658</v>
+        <v>1233.981541174687</v>
       </c>
       <c r="AB24" t="n">
-        <v>1559.45648682913</v>
+        <v>1688.387984058662</v>
       </c>
       <c r="AC24" t="n">
-        <v>1410.624148437084</v>
+        <v>1527.250604527522</v>
       </c>
       <c r="AD24" t="n">
-        <v>1139750.186083659</v>
+        <v>1233981.541174687</v>
       </c>
       <c r="AE24" t="n">
-        <v>1559456.48682913</v>
+        <v>1688387.984058662</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427120509802019e-06</v>
+        <v>2.064718717279932e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>21.46484375</v>
       </c>
       <c r="AH24" t="n">
-        <v>1410624.148437084</v>
+        <v>1527250.604527522</v>
       </c>
     </row>
     <row r="25">
@@ -23217,28 +23217,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1143.970281345702</v>
+        <v>1238.20163643673</v>
       </c>
       <c r="AB25" t="n">
-        <v>1565.230607344121</v>
+        <v>1694.162104573653</v>
       </c>
       <c r="AC25" t="n">
-        <v>1415.847194994152</v>
+        <v>1532.473651084591</v>
       </c>
       <c r="AD25" t="n">
-        <v>1143970.281345702</v>
+        <v>1238201.63643673</v>
       </c>
       <c r="AE25" t="n">
-        <v>1565230.607344121</v>
+        <v>1694162.104573653</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.426932284991968e-06</v>
+        <v>2.064446398799678e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>21.46809895833333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1415847.194994152</v>
+        <v>1532473.651084591</v>
       </c>
     </row>
   </sheetData>
@@ -23514,28 +23514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2050.644359955808</v>
+        <v>2196.198244444248</v>
       </c>
       <c r="AB2" t="n">
-        <v>2805.782081335783</v>
+        <v>3004.935327477225</v>
       </c>
       <c r="AC2" t="n">
-        <v>2538.002177432979</v>
+        <v>2718.148517275904</v>
       </c>
       <c r="AD2" t="n">
-        <v>2050644.359955808</v>
+        <v>2196198.244444248</v>
       </c>
       <c r="AE2" t="n">
-        <v>2805782.081335783</v>
+        <v>3004935.327477225</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800733667856746e-07</v>
+        <v>1.471761095527344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.81510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2538002.177432979</v>
+        <v>2718148.517275904</v>
       </c>
     </row>
     <row r="3">
@@ -23620,28 +23620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1326.780238941178</v>
+        <v>1439.95088649682</v>
       </c>
       <c r="AB3" t="n">
-        <v>1815.359256332381</v>
+        <v>1970.204329054611</v>
       </c>
       <c r="AC3" t="n">
-        <v>1642.103916780737</v>
+        <v>1782.170793088781</v>
       </c>
       <c r="AD3" t="n">
-        <v>1326780.238941178</v>
+        <v>1439950.88649682</v>
       </c>
       <c r="AE3" t="n">
-        <v>1815359.256332381</v>
+        <v>1970204.329054611</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276559305293869e-06</v>
+        <v>1.916989467662772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.96354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1642103.916780737</v>
+        <v>1782170.793088781</v>
       </c>
     </row>
     <row r="4">
@@ -23726,28 +23726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1159.926910502122</v>
+        <v>1265.001748824565</v>
       </c>
       <c r="AB4" t="n">
-        <v>1587.06317131273</v>
+        <v>1730.831200680201</v>
       </c>
       <c r="AC4" t="n">
-        <v>1435.596089699794</v>
+        <v>1565.643100124129</v>
       </c>
       <c r="AD4" t="n">
-        <v>1159926.910502122</v>
+        <v>1265001.748824565</v>
       </c>
       <c r="AE4" t="n">
-        <v>1587063.171312731</v>
+        <v>1730831.200680201</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381836249118551e-06</v>
+        <v>2.075082234416904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1435596.089699794</v>
+        <v>1565643.100124129</v>
       </c>
     </row>
     <row r="5">
@@ -23832,28 +23832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1087.668034120425</v>
+        <v>1176.722025194164</v>
       </c>
       <c r="AB5" t="n">
-        <v>1488.195388810653</v>
+        <v>1610.04298818255</v>
       </c>
       <c r="AC5" t="n">
-        <v>1346.16410959791</v>
+        <v>1456.382745099933</v>
       </c>
       <c r="AD5" t="n">
-        <v>1087668.034120425</v>
+        <v>1176722.025194164</v>
       </c>
       <c r="AE5" t="n">
-        <v>1488195.388810653</v>
+        <v>1610042.98818255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.436307395101341e-06</v>
+        <v>2.156880716248104e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.076171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1346164.10959791</v>
+        <v>1456382.745099933</v>
       </c>
     </row>
     <row r="6">
@@ -23938,28 +23938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1033.872369612492</v>
+        <v>1130.936739556307</v>
       </c>
       <c r="AB6" t="n">
-        <v>1414.589787333681</v>
+        <v>1547.397540468589</v>
       </c>
       <c r="AC6" t="n">
-        <v>1279.583323419789</v>
+        <v>1399.716090992355</v>
       </c>
       <c r="AD6" t="n">
-        <v>1033872.369612492</v>
+        <v>1130936.739556307</v>
       </c>
       <c r="AE6" t="n">
-        <v>1414589.787333681</v>
+        <v>1547397.540468589</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.469499158821696e-06</v>
+        <v>2.206724277139638e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1279583.323419789</v>
+        <v>1399716.090992355</v>
       </c>
     </row>
     <row r="7">
@@ -24044,28 +24044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>998.6090277150944</v>
+        <v>1087.577677934262</v>
       </c>
       <c r="AB7" t="n">
-        <v>1366.340927240813</v>
+        <v>1488.071759490512</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.939266816484</v>
+        <v>1346.052279286568</v>
       </c>
       <c r="AD7" t="n">
-        <v>998609.0277150944</v>
+        <v>1087577.677934262</v>
       </c>
       <c r="AE7" t="n">
-        <v>1366340.927240813</v>
+        <v>1488071.759490512</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493629367415941e-06</v>
+        <v>2.242960240119067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.19075520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235939.266816485</v>
+        <v>1346052.279286568</v>
       </c>
     </row>
     <row r="8">
@@ -24150,28 +24150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>963.2457174082562</v>
+        <v>1060.2247464975</v>
       </c>
       <c r="AB8" t="n">
-        <v>1317.955285959854</v>
+        <v>1450.646271972566</v>
       </c>
       <c r="AC8" t="n">
-        <v>1192.171483229706</v>
+        <v>1312.198627770333</v>
       </c>
       <c r="AD8" t="n">
-        <v>963245.7174082561</v>
+        <v>1060224.7464975</v>
       </c>
       <c r="AE8" t="n">
-        <v>1317955.285959854</v>
+        <v>1450646.271972565</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509614357919301e-06</v>
+        <v>2.266964654413456e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1192171.483229706</v>
+        <v>1312198.627770333</v>
       </c>
     </row>
     <row r="9">
@@ -24256,28 +24256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>939.1838609066724</v>
+        <v>1028.237762471861</v>
       </c>
       <c r="AB9" t="n">
-        <v>1285.032792360198</v>
+        <v>1406.880269262546</v>
       </c>
       <c r="AC9" t="n">
-        <v>1162.391066212191</v>
+        <v>1272.609590932987</v>
       </c>
       <c r="AD9" t="n">
-        <v>939183.8609066724</v>
+        <v>1028237.762471861</v>
       </c>
       <c r="AE9" t="n">
-        <v>1285032.792360198</v>
+        <v>1406880.269262546</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522239445960172e-06</v>
+        <v>2.285923554875267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1162391.066212191</v>
+        <v>1272609.590932987</v>
       </c>
     </row>
     <row r="10">
@@ -24362,28 +24362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>916.7156058808686</v>
+        <v>1005.769507446057</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254.290734604439</v>
+        <v>1376.138211506787</v>
       </c>
       <c r="AC10" t="n">
-        <v>1134.582987301893</v>
+        <v>1244.801512022688</v>
       </c>
       <c r="AD10" t="n">
-        <v>916715.6058808686</v>
+        <v>1005769.507446057</v>
       </c>
       <c r="AE10" t="n">
-        <v>1254290.734604439</v>
+        <v>1376138.211506787</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.532217338121506e-06</v>
+        <v>2.30090720201444e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.630859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1134582.987301893</v>
+        <v>1244801.512022689</v>
       </c>
     </row>
     <row r="11">
@@ -24468,28 +24468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>907.8434418654272</v>
+        <v>996.8973434306156</v>
       </c>
       <c r="AB11" t="n">
-        <v>1242.15144838626</v>
+        <v>1363.998925288608</v>
       </c>
       <c r="AC11" t="n">
-        <v>1123.602257522782</v>
+        <v>1233.820782243577</v>
       </c>
       <c r="AD11" t="n">
-        <v>907843.4418654272</v>
+        <v>996897.3434306156</v>
       </c>
       <c r="AE11" t="n">
-        <v>1242151.44838626</v>
+        <v>1363998.925288608</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535780871036268e-06</v>
+        <v>2.306258504564145e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1123602.257522782</v>
+        <v>1233820.782243578</v>
       </c>
     </row>
     <row r="12">
@@ -24574,28 +24574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>912.0650291245203</v>
+        <v>1001.118930689709</v>
       </c>
       <c r="AB12" t="n">
-        <v>1247.927610317436</v>
+        <v>1369.775087219784</v>
       </c>
       <c r="AC12" t="n">
-        <v>1128.827150666141</v>
+        <v>1239.045675386937</v>
       </c>
       <c r="AD12" t="n">
-        <v>912065.0291245203</v>
+        <v>1001118.930689709</v>
       </c>
       <c r="AE12" t="n">
-        <v>1247927.610317436</v>
+        <v>1369775.087219784</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.535577240583996e-06</v>
+        <v>2.305952715847019e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1128827.150666141</v>
+        <v>1239045.675386937</v>
       </c>
     </row>
   </sheetData>
@@ -24871,28 +24871,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1500.782686469356</v>
+        <v>1618.570315004541</v>
       </c>
       <c r="AB2" t="n">
-        <v>2053.437081486642</v>
+        <v>2214.599311271909</v>
       </c>
       <c r="AC2" t="n">
-        <v>1857.459928446601</v>
+        <v>2003.241061213773</v>
       </c>
       <c r="AD2" t="n">
-        <v>1500782.686469356</v>
+        <v>1618570.315004542</v>
       </c>
       <c r="AE2" t="n">
-        <v>2053437.081486642</v>
+        <v>2214599.311271909</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.148286882243412e-06</v>
+        <v>1.761181272424368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1857459.928446601</v>
+        <v>2003241.061213773</v>
       </c>
     </row>
     <row r="3">
@@ -24977,28 +24977,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1064.694240402466</v>
+        <v>1166.76539544494</v>
       </c>
       <c r="AB3" t="n">
-        <v>1456.761630713494</v>
+        <v>1596.419888104157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1317.730345255987</v>
+        <v>1444.059814572881</v>
       </c>
       <c r="AD3" t="n">
-        <v>1064694.240402466</v>
+        <v>1166765.39544494</v>
       </c>
       <c r="AE3" t="n">
-        <v>1456761.630713494</v>
+        <v>1596419.888104157</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405158668407035e-06</v>
+        <v>2.155157539332266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.56705729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1317730.345255987</v>
+        <v>1444059.814572881</v>
       </c>
     </row>
     <row r="4">
@@ -25083,28 +25083,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.2769528005626</v>
+        <v>1037.717154221998</v>
       </c>
       <c r="AB4" t="n">
-        <v>1301.579094198979</v>
+        <v>1419.850391256333</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.35821222636</v>
+        <v>1284.341862687368</v>
       </c>
       <c r="AD4" t="n">
-        <v>951276.9528005626</v>
+        <v>1037717.154221998</v>
       </c>
       <c r="AE4" t="n">
-        <v>1301579.094198979</v>
+        <v>1419850.391256333</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.496156188030647e-06</v>
+        <v>2.294724689211283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.076171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177358.21222636</v>
+        <v>1284341.862687368</v>
       </c>
     </row>
     <row r="5">
@@ -25189,28 +25189,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>888.746271257759</v>
+        <v>975.1011318246232</v>
       </c>
       <c r="AB5" t="n">
-        <v>1216.021857053142</v>
+        <v>1334.176386988298</v>
       </c>
       <c r="AC5" t="n">
-        <v>1099.966437713385</v>
+        <v>1206.844465142454</v>
       </c>
       <c r="AD5" t="n">
-        <v>888746.271257759</v>
+        <v>975101.1318246232</v>
       </c>
       <c r="AE5" t="n">
-        <v>1216021.857053142</v>
+        <v>1334176.386988298</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541654947842453e-06</v>
+        <v>2.36450826415079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.392578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1099966.437713385</v>
+        <v>1206844.465142454</v>
       </c>
     </row>
     <row r="6">
@@ -25295,28 +25295,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>841.0516468781556</v>
+        <v>935.1792690739775</v>
       </c>
       <c r="AB6" t="n">
-        <v>1150.763967838644</v>
+        <v>1279.553533144581</v>
       </c>
       <c r="AC6" t="n">
-        <v>1040.936669855495</v>
+        <v>1157.434739805925</v>
       </c>
       <c r="AD6" t="n">
-        <v>841051.6468781555</v>
+        <v>935179.2690739775</v>
       </c>
       <c r="AE6" t="n">
-        <v>1150763.967838644</v>
+        <v>1279553.533144581</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.570820819516688e-06</v>
+        <v>2.40924132500945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1040936.669855495</v>
+        <v>1157434.739805925</v>
       </c>
     </row>
     <row r="7">
@@ -25401,28 +25401,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>812.9417291741951</v>
+        <v>899.3818410870798</v>
       </c>
       <c r="AB7" t="n">
-        <v>1112.302738314039</v>
+        <v>1230.573912901844</v>
       </c>
       <c r="AC7" t="n">
-        <v>1006.146126096044</v>
+        <v>1113.129665775826</v>
       </c>
       <c r="AD7" t="n">
-        <v>812941.7291741951</v>
+        <v>899381.8410870798</v>
       </c>
       <c r="AE7" t="n">
-        <v>1112302.738314039</v>
+        <v>1230573.912901844</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586199188217648e-06</v>
+        <v>2.432827848007652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.76432291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1006146.126096044</v>
+        <v>1113129.665775826</v>
       </c>
     </row>
     <row r="8">
@@ -25507,28 +25507,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>815.5179246472092</v>
+        <v>901.958036560094</v>
       </c>
       <c r="AB8" t="n">
-        <v>1115.82760261394</v>
+        <v>1234.098777201745</v>
       </c>
       <c r="AC8" t="n">
-        <v>1009.334582294341</v>
+        <v>1116.318121974123</v>
       </c>
       <c r="AD8" t="n">
-        <v>815517.9246472091</v>
+        <v>901958.036560094</v>
       </c>
       <c r="AE8" t="n">
-        <v>1115827.60261394</v>
+        <v>1234098.777201745</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586623419078364e-06</v>
+        <v>2.433478510711051e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.76106770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1009334.582294341</v>
+        <v>1116318.121974122</v>
       </c>
     </row>
   </sheetData>
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1164.707403542873</v>
+        <v>1279.560623185101</v>
       </c>
       <c r="AB2" t="n">
-        <v>1593.604052791555</v>
+        <v>1750.751294872493</v>
       </c>
       <c r="AC2" t="n">
-        <v>1441.512718630463</v>
+        <v>1583.662048484736</v>
       </c>
       <c r="AD2" t="n">
-        <v>1164707.403542873</v>
+        <v>1279560.623185101</v>
       </c>
       <c r="AE2" t="n">
-        <v>1593604.052791554</v>
+        <v>1750751.294872493</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.287687670734367e-06</v>
+        <v>2.011986585412429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1441512.718630463</v>
+        <v>1583662.048484736</v>
       </c>
     </row>
     <row r="3">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>878.1425659581056</v>
+        <v>970.1616870392024</v>
       </c>
       <c r="AB3" t="n">
-        <v>1201.513399659694</v>
+        <v>1327.418020719961</v>
       </c>
       <c r="AC3" t="n">
-        <v>1086.84264713082</v>
+        <v>1200.73110786534</v>
       </c>
       <c r="AD3" t="n">
-        <v>878142.5659581056</v>
+        <v>970161.6870392024</v>
       </c>
       <c r="AE3" t="n">
-        <v>1201513.399659694</v>
+        <v>1327418.020719961</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511828925851545e-06</v>
+        <v>2.362202875264827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.623046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1086842.64713082</v>
+        <v>1200731.10786534</v>
       </c>
     </row>
     <row r="4">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>790.2418011243357</v>
+        <v>882.0049891502687</v>
       </c>
       <c r="AB4" t="n">
-        <v>1081.243695306075</v>
+        <v>1206.798137469297</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.0513145611195</v>
+        <v>1091.62301698105</v>
       </c>
       <c r="AD4" t="n">
-        <v>790241.8011243356</v>
+        <v>882004.9891502687</v>
       </c>
       <c r="AE4" t="n">
-        <v>1081243.695306075</v>
+        <v>1206798.137469297</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.589285473141181e-06</v>
+        <v>2.483227202546174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.470703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>978051.3145611195</v>
+        <v>1091623.01698105</v>
       </c>
     </row>
     <row r="5">
@@ -48143,28 +48143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>739.191376187997</v>
+        <v>831.0398155599506</v>
       </c>
       <c r="AB5" t="n">
-        <v>1011.394251722379</v>
+        <v>1137.065338538251</v>
       </c>
       <c r="AC5" t="n">
-        <v>914.8682038387425</v>
+        <v>1028.545418509385</v>
       </c>
       <c r="AD5" t="n">
-        <v>739191.3761879969</v>
+        <v>831039.8155599507</v>
       </c>
       <c r="AE5" t="n">
-        <v>1011394.251722379</v>
+        <v>1137065.338538251</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.624612680261951e-06</v>
+        <v>2.538425266830301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.982421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>914868.2038387425</v>
+        <v>1028545.418509385</v>
       </c>
     </row>
     <row r="6">
@@ -48249,28 +48249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>742.4935673329539</v>
+        <v>834.3420067049076</v>
       </c>
       <c r="AB6" t="n">
-        <v>1015.912455329301</v>
+        <v>1141.583542145172</v>
       </c>
       <c r="AC6" t="n">
-        <v>918.9551964347579</v>
+        <v>1032.632411105401</v>
       </c>
       <c r="AD6" t="n">
-        <v>742493.5673329539</v>
+        <v>834342.0067049076</v>
       </c>
       <c r="AE6" t="n">
-        <v>1015912.455329301</v>
+        <v>1141583.542145173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.62494181573202e-06</v>
+        <v>2.538939534509967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>918955.1964347579</v>
+        <v>1032632.411105401</v>
       </c>
     </row>
   </sheetData>
@@ -48546,28 +48546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>669.6937378373071</v>
+        <v>757.1095604012629</v>
       </c>
       <c r="AB2" t="n">
-        <v>916.3045169115502</v>
+        <v>1035.910701857467</v>
       </c>
       <c r="AC2" t="n">
-        <v>828.8536998589777</v>
+        <v>937.044838381991</v>
       </c>
       <c r="AD2" t="n">
-        <v>669693.7378373072</v>
+        <v>757109.5604012629</v>
       </c>
       <c r="AE2" t="n">
-        <v>916304.5169115502</v>
+        <v>1035910.701857467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.590388957764869e-06</v>
+        <v>2.591818926808232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>828853.6998589777</v>
+        <v>937044.838381991</v>
       </c>
     </row>
     <row r="3">
@@ -48652,28 +48652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>602.4724236018679</v>
+        <v>689.8881566572727</v>
       </c>
       <c r="AB3" t="n">
-        <v>824.3293491795395</v>
+        <v>943.9354116559078</v>
       </c>
       <c r="AC3" t="n">
-        <v>745.6565130473516</v>
+        <v>853.8475407891383</v>
       </c>
       <c r="AD3" t="n">
-        <v>602472.423601868</v>
+        <v>689888.1566572727</v>
       </c>
       <c r="AE3" t="n">
-        <v>824329.3491795395</v>
+        <v>943935.4116559079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.667871257054761e-06</v>
+        <v>2.718089980698342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>745656.5130473516</v>
+        <v>853847.5407891383</v>
       </c>
     </row>
   </sheetData>
@@ -48949,28 +48949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2728.88779245687</v>
+        <v>2886.449258256052</v>
       </c>
       <c r="AB2" t="n">
-        <v>3733.784667672403</v>
+        <v>3949.367216300143</v>
       </c>
       <c r="AC2" t="n">
-        <v>3377.437499389303</v>
+        <v>3572.445152148009</v>
       </c>
       <c r="AD2" t="n">
-        <v>2728887.79245687</v>
+        <v>2886449.258256052</v>
       </c>
       <c r="AE2" t="n">
-        <v>3733784.667672404</v>
+        <v>3949367.216300143</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.420736658950672e-07</v>
+        <v>1.244063470194413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.06966145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3377437.499389302</v>
+        <v>3572445.152148009</v>
       </c>
     </row>
     <row r="3">
@@ -49055,28 +49055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1604.614028456736</v>
+        <v>1720.604175205241</v>
       </c>
       <c r="AB3" t="n">
-        <v>2195.503704309294</v>
+        <v>2354.206540214724</v>
       </c>
       <c r="AC3" t="n">
-        <v>1985.967912178817</v>
+        <v>2129.524372166261</v>
       </c>
       <c r="AD3" t="n">
-        <v>1604614.028456736</v>
+        <v>1720604.175205241</v>
       </c>
       <c r="AE3" t="n">
-        <v>2195503.704309294</v>
+        <v>2354206.540214723</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167735882374425e-06</v>
+        <v>1.725190577659379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.451171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1985967.912178817</v>
+        <v>2129524.372166261</v>
       </c>
     </row>
     <row r="4">
@@ -49161,28 +49161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1366.724843590326</v>
+        <v>1474.50304604563</v>
       </c>
       <c r="AB4" t="n">
-        <v>1870.01322664493</v>
+        <v>2017.48011808299</v>
       </c>
       <c r="AC4" t="n">
-        <v>1691.541788873985</v>
+        <v>1824.934647164278</v>
       </c>
       <c r="AD4" t="n">
-        <v>1366724.843590326</v>
+        <v>1474503.04604563</v>
       </c>
       <c r="AE4" t="n">
-        <v>1870013.22664493</v>
+        <v>2017480.11808299</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28768041810828e-06</v>
+        <v>1.902394332389445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1691541.788873985</v>
+        <v>1824934.647164278</v>
       </c>
     </row>
     <row r="5">
@@ -49267,28 +49267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1263.261838031238</v>
+        <v>1362.828185701893</v>
       </c>
       <c r="AB5" t="n">
-        <v>1728.450577973326</v>
+        <v>1864.681647413563</v>
       </c>
       <c r="AC5" t="n">
-        <v>1563.489680707173</v>
+        <v>1686.719048081541</v>
       </c>
       <c r="AD5" t="n">
-        <v>1263261.838031238</v>
+        <v>1362828.185701893</v>
       </c>
       <c r="AE5" t="n">
-        <v>1728450.577973326</v>
+        <v>1864681.647413563</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350114601733291e-06</v>
+        <v>1.994633396838428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.74348958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1563489.680707173</v>
+        <v>1686719.048081541</v>
       </c>
     </row>
     <row r="6">
@@ -49373,28 +49373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.132215053123</v>
+        <v>1298.401456593108</v>
       </c>
       <c r="AB6" t="n">
-        <v>1651.651551550469</v>
+        <v>1776.530154340235</v>
       </c>
       <c r="AC6" t="n">
-        <v>1494.020245578003</v>
+        <v>1606.980609785734</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207132.215053123</v>
+        <v>1298401.456593108</v>
       </c>
       <c r="AE6" t="n">
-        <v>1651651.551550469</v>
+        <v>1776530.154340235</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.388126581038109e-06</v>
+        <v>2.050791565414624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.09244791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1494020.245578003</v>
+        <v>1606980.609785734</v>
       </c>
     </row>
     <row r="7">
@@ -49479,28 +49479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1158.057893988139</v>
+        <v>1257.538900804222</v>
       </c>
       <c r="AB7" t="n">
-        <v>1584.50590046311</v>
+        <v>1720.620202781149</v>
       </c>
       <c r="AC7" t="n">
-        <v>1433.282881190909</v>
+        <v>1556.406625533338</v>
       </c>
       <c r="AD7" t="n">
-        <v>1158057.893988139</v>
+        <v>1257538.900804222</v>
       </c>
       <c r="AE7" t="n">
-        <v>1584505.90046311</v>
+        <v>1720620.202781149</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.415207654377033e-06</v>
+        <v>2.090800623338079e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.64973958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1433282.881190909</v>
+        <v>1556406.625533338</v>
       </c>
     </row>
     <row r="8">
@@ -49585,28 +49585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1127.965326373049</v>
+        <v>1219.149227058461</v>
       </c>
       <c r="AB8" t="n">
-        <v>1543.331921861757</v>
+        <v>1668.093757529325</v>
       </c>
       <c r="AC8" t="n">
-        <v>1396.038489319227</v>
+        <v>1508.893230495018</v>
       </c>
       <c r="AD8" t="n">
-        <v>1127965.326373049</v>
+        <v>1219149.227058461</v>
       </c>
       <c r="AE8" t="n">
-        <v>1543331.921861757</v>
+        <v>1668093.757529325</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.434312120659766e-06</v>
+        <v>2.119025195109534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.35026041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1396038.489319227</v>
+        <v>1508893.230495018</v>
       </c>
     </row>
     <row r="9">
@@ -49691,28 +49691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1104.65393869356</v>
+        <v>1195.837839378973</v>
       </c>
       <c r="AB9" t="n">
-        <v>1511.436252812839</v>
+        <v>1636.198088480407</v>
       </c>
       <c r="AC9" t="n">
-        <v>1367.186898158485</v>
+        <v>1480.041639334277</v>
       </c>
       <c r="AD9" t="n">
-        <v>1104653.93869356</v>
+        <v>1195837.839378973</v>
       </c>
       <c r="AE9" t="n">
-        <v>1511436.252812839</v>
+        <v>1636198.088480407</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.447901895644389e-06</v>
+        <v>2.13910246781294e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.138671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1367186.898158485</v>
+        <v>1480041.639334277</v>
       </c>
     </row>
     <row r="10">
@@ -49797,28 +49797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1073.59972600301</v>
+        <v>1172.995391964521</v>
       </c>
       <c r="AB10" t="n">
-        <v>1468.946508994455</v>
+        <v>1604.944044190297</v>
       </c>
       <c r="AC10" t="n">
-        <v>1328.752315855397</v>
+        <v>1451.770437165888</v>
       </c>
       <c r="AD10" t="n">
-        <v>1073599.72600301</v>
+        <v>1172995.391964521</v>
       </c>
       <c r="AE10" t="n">
-        <v>1468946.508994455</v>
+        <v>1604944.044190297</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459719091283193e-06</v>
+        <v>2.156560965815903e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1328752.315855397</v>
+        <v>1451770.437165888</v>
       </c>
     </row>
     <row r="11">
@@ -49903,28 +49903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1056.04750077458</v>
+        <v>1155.443166736092</v>
       </c>
       <c r="AB11" t="n">
-        <v>1444.930780087392</v>
+        <v>1580.928315283234</v>
       </c>
       <c r="AC11" t="n">
-        <v>1307.028614408937</v>
+        <v>1430.046735719427</v>
       </c>
       <c r="AD11" t="n">
-        <v>1056047.50077458</v>
+        <v>1155443.166736091</v>
       </c>
       <c r="AE11" t="n">
-        <v>1444930.780087392</v>
+        <v>1580928.315283234</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467991128230355e-06</v>
+        <v>2.168781914417976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.8359375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1307028.614408937</v>
+        <v>1430046.735719427</v>
       </c>
     </row>
     <row r="12">
@@ -50009,28 +50009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1038.007347866042</v>
+        <v>1129.276499897475</v>
       </c>
       <c r="AB12" t="n">
-        <v>1420.247447002553</v>
+        <v>1545.12592732277</v>
       </c>
       <c r="AC12" t="n">
-        <v>1284.70102399044</v>
+        <v>1397.661277416944</v>
       </c>
       <c r="AD12" t="n">
-        <v>1038007.347866042</v>
+        <v>1129276.499897475</v>
       </c>
       <c r="AE12" t="n">
-        <v>1420247.447002553</v>
+        <v>1545125.92732277</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.475770782025901e-06</v>
+        <v>2.18027542560326e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.72200520833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1284701.02399044</v>
+        <v>1397661.277416944</v>
       </c>
     </row>
     <row r="13">
@@ -50115,28 +50115,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1022.318822461746</v>
+        <v>1113.587974493179</v>
       </c>
       <c r="AB13" t="n">
-        <v>1398.781714415503</v>
+        <v>1523.66019473572</v>
       </c>
       <c r="AC13" t="n">
-        <v>1265.283950794153</v>
+        <v>1378.244204220656</v>
       </c>
       <c r="AD13" t="n">
-        <v>1022318.822461746</v>
+        <v>1113587.974493179</v>
       </c>
       <c r="AE13" t="n">
-        <v>1398781.714415503</v>
+        <v>1523660.19473572</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481285473324009e-06</v>
+        <v>2.188422724671309e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1265283.950794153</v>
+        <v>1378244.204220657</v>
       </c>
     </row>
     <row r="14">
@@ -50221,28 +50221,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1005.966368707171</v>
+        <v>1097.235520738604</v>
       </c>
       <c r="AB14" t="n">
-        <v>1376.407565769149</v>
+        <v>1501.286046089366</v>
       </c>
       <c r="AC14" t="n">
-        <v>1245.045159492292</v>
+        <v>1358.005412918796</v>
       </c>
       <c r="AD14" t="n">
-        <v>1005966.368707171</v>
+        <v>1097235.520738604</v>
       </c>
       <c r="AE14" t="n">
-        <v>1376407.565769149</v>
+        <v>1501286.046089367</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487095594513087e-06</v>
+        <v>2.197006486189432e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1245045.159492292</v>
+        <v>1358005.412918796</v>
       </c>
     </row>
     <row r="15">
@@ -50327,28 +50327,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>996.3560996708018</v>
+        <v>1087.625251702235</v>
       </c>
       <c r="AB15" t="n">
-        <v>1363.258371698441</v>
+        <v>1488.136852018659</v>
       </c>
       <c r="AC15" t="n">
-        <v>1233.150906048683</v>
+        <v>1346.111159475187</v>
       </c>
       <c r="AD15" t="n">
-        <v>996356.0996708018</v>
+        <v>1087625.251702235</v>
       </c>
       <c r="AE15" t="n">
-        <v>1363258.371698441</v>
+        <v>1488136.852018659</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.489557510271172e-06</v>
+        <v>2.200643673273382e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.52018229166667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1233150.906048683</v>
+        <v>1346111.159475187</v>
       </c>
     </row>
     <row r="16">
@@ -50433,28 +50433,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>998.5638283298172</v>
+        <v>1089.83298036125</v>
       </c>
       <c r="AB16" t="n">
-        <v>1366.27908344782</v>
+        <v>1491.157563768038</v>
       </c>
       <c r="AC16" t="n">
-        <v>1235.883325308297</v>
+        <v>1348.843578734801</v>
       </c>
       <c r="AD16" t="n">
-        <v>998563.8283298172</v>
+        <v>1089832.98036125</v>
       </c>
       <c r="AE16" t="n">
-        <v>1366279.08344782</v>
+        <v>1491157.563768038</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.490345323313759e-06</v>
+        <v>2.201807573140247e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1235883.325308297</v>
+        <v>1348843.578734801</v>
       </c>
     </row>
   </sheetData>
@@ -50730,28 +50730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3911.597278423932</v>
+        <v>4116.036844037177</v>
       </c>
       <c r="AB2" t="n">
-        <v>5352.01996383265</v>
+        <v>5631.743196741799</v>
       </c>
       <c r="AC2" t="n">
-        <v>4841.230690091458</v>
+        <v>5094.257530245767</v>
       </c>
       <c r="AD2" t="n">
-        <v>3911597.278423932</v>
+        <v>4116036.844037177</v>
       </c>
       <c r="AE2" t="n">
-        <v>5352019.96383265</v>
+        <v>5631743.196741799</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.876107255094686e-07</v>
+        <v>9.985269903989001e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.92513020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4841230.690091458</v>
+        <v>5094257.530245767</v>
       </c>
     </row>
     <row r="3">
@@ -50836,28 +50836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2001.728974014947</v>
+        <v>2129.663716625546</v>
       </c>
       <c r="AB3" t="n">
-        <v>2738.853892296973</v>
+        <v>2913.8998512193</v>
       </c>
       <c r="AC3" t="n">
-        <v>2477.46152082173</v>
+        <v>2635.801339103057</v>
       </c>
       <c r="AD3" t="n">
-        <v>2001728.974014947</v>
+        <v>2129663.716625547</v>
       </c>
       <c r="AE3" t="n">
-        <v>2738853.892296973</v>
+        <v>2913899.8512193</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.513775736893723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63216145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2477461.52082173</v>
+        <v>2635801.339103057</v>
       </c>
     </row>
     <row r="4">
@@ -50942,28 +50942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1655.873869768198</v>
+        <v>1766.665395351363</v>
       </c>
       <c r="AB4" t="n">
-        <v>2265.639680616231</v>
+        <v>2417.229533696265</v>
       </c>
       <c r="AC4" t="n">
-        <v>2049.41020934348</v>
+        <v>2186.532539603251</v>
       </c>
       <c r="AD4" t="n">
-        <v>1655873.869768198</v>
+        <v>1766665.395351363</v>
       </c>
       <c r="AE4" t="n">
-        <v>2265639.680616231</v>
+        <v>2417229.533696265</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178598566219652e-06</v>
+        <v>1.711524319728725e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.2109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2049410.20934348</v>
+        <v>2186532.539603251</v>
       </c>
     </row>
     <row r="5">
@@ -51048,28 +51048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1503.915167475627</v>
+        <v>1614.706603550242</v>
       </c>
       <c r="AB5" t="n">
-        <v>2057.723080194732</v>
+        <v>2209.312810805217</v>
       </c>
       <c r="AC5" t="n">
-        <v>1861.336877453428</v>
+        <v>1998.459096931972</v>
       </c>
       <c r="AD5" t="n">
-        <v>1503915.167475627</v>
+        <v>1614706.603550242</v>
       </c>
       <c r="AE5" t="n">
-        <v>2057723.080194732</v>
+        <v>2209312.810805217</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250624034155298e-06</v>
+        <v>1.816117472601036e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1861336.877453428</v>
+        <v>1998459.096931972</v>
       </c>
     </row>
     <row r="6">
@@ -51154,28 +51154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1420.996257563822</v>
+        <v>1531.702352783865</v>
       </c>
       <c r="AB6" t="n">
-        <v>1944.269769529272</v>
+        <v>2095.74273301756</v>
       </c>
       <c r="AC6" t="n">
-        <v>1758.711391525158</v>
+        <v>1895.727987971763</v>
       </c>
       <c r="AD6" t="n">
-        <v>1420996.257563822</v>
+        <v>1531702.352783865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1944269.769529272</v>
+        <v>2095742.73301756</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294180937689502e-06</v>
+        <v>1.87936945833014e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.87044270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1758711.391525158</v>
+        <v>1895727.987971763</v>
       </c>
     </row>
     <row r="7">
@@ -51260,28 +51260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1370.308260258075</v>
+        <v>1472.485462145962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1874.91621541893</v>
+        <v>2014.719570781945</v>
       </c>
       <c r="AC7" t="n">
-        <v>1695.976843280783</v>
+        <v>1822.437562623193</v>
       </c>
       <c r="AD7" t="n">
-        <v>1370308.260258075</v>
+        <v>1472485.462145962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1874916.21541893</v>
+        <v>2014719.570781945</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324832092028387e-06</v>
+        <v>1.923880114954325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.31705729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1695976.843280782</v>
+        <v>1822437.562623193</v>
       </c>
     </row>
     <row r="8">
@@ -51366,28 +51366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1325.76356174511</v>
+        <v>1428.026014979018</v>
       </c>
       <c r="AB8" t="n">
-        <v>1813.968193740089</v>
+        <v>1953.888193755753</v>
       </c>
       <c r="AC8" t="n">
-        <v>1640.845615249884</v>
+        <v>1767.411846843006</v>
       </c>
       <c r="AD8" t="n">
-        <v>1325763.56174511</v>
+        <v>1428026.014979018</v>
       </c>
       <c r="AE8" t="n">
-        <v>1813968.193740089</v>
+        <v>1953888.193755753</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.346563096188153e-06</v>
+        <v>1.95543720587364e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.939453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1640845.615249884</v>
+        <v>1767411.846843006</v>
       </c>
     </row>
     <row r="9">
@@ -51472,28 +51472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1295.856525672217</v>
+        <v>1398.118978906125</v>
       </c>
       <c r="AB9" t="n">
-        <v>1773.048067579844</v>
+        <v>1912.968067595508</v>
       </c>
       <c r="AC9" t="n">
-        <v>1603.830848498616</v>
+        <v>1730.397080091738</v>
       </c>
       <c r="AD9" t="n">
-        <v>1295856.525672217</v>
+        <v>1398118.978906125</v>
       </c>
       <c r="AE9" t="n">
-        <v>1773048.067579844</v>
+        <v>1912968.067595508</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.364118710902375e-06</v>
+        <v>1.98093092561195e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.646484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1603830.848498615</v>
+        <v>1730397.080091738</v>
       </c>
     </row>
     <row r="10">
@@ -51578,28 +51578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1272.787495599132</v>
+        <v>1366.521055500885</v>
       </c>
       <c r="AB10" t="n">
-        <v>1741.48400290007</v>
+        <v>1869.734394790461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1575.279213851436</v>
+        <v>1691.289568340364</v>
       </c>
       <c r="AD10" t="n">
-        <v>1272787.495599132</v>
+        <v>1366521.055500885</v>
       </c>
       <c r="AE10" t="n">
-        <v>1741484.00290007</v>
+        <v>1869734.394790461</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377024460097695e-06</v>
+        <v>1.99967225471687e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.431640625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1575279.213851436</v>
+        <v>1691289.568340363</v>
       </c>
     </row>
     <row r="11">
@@ -51684,28 +51684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1250.767349021977</v>
+        <v>1344.500908923729</v>
       </c>
       <c r="AB11" t="n">
-        <v>1711.355066892902</v>
+        <v>1839.605458783292</v>
       </c>
       <c r="AC11" t="n">
-        <v>1548.025741210564</v>
+        <v>1664.036095699491</v>
       </c>
       <c r="AD11" t="n">
-        <v>1250767.349021977</v>
+        <v>1344500.908923729</v>
       </c>
       <c r="AE11" t="n">
-        <v>1711355.066892902</v>
+        <v>1839605.458783292</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389076152360972e-06</v>
+        <v>2.017173348807494e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1548025.741210564</v>
+        <v>1664036.095699491</v>
       </c>
     </row>
     <row r="12">
@@ -51790,28 +51790,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1235.865395618532</v>
+        <v>1329.598955520285</v>
       </c>
       <c r="AB12" t="n">
-        <v>1690.965556818524</v>
+        <v>1819.215948708914</v>
       </c>
       <c r="AC12" t="n">
-        <v>1529.582177360827</v>
+        <v>1645.592531849755</v>
       </c>
       <c r="AD12" t="n">
-        <v>1235865.395618532</v>
+        <v>1329598.955520285</v>
       </c>
       <c r="AE12" t="n">
-        <v>1690965.556818523</v>
+        <v>1819215.948708914</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396288188676003e-06</v>
+        <v>2.027646444483772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.12239583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1529582.177360828</v>
+        <v>1645592.531849755</v>
       </c>
     </row>
     <row r="13">
@@ -51896,28 +51896,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1210.161464032157</v>
+        <v>1312.338576411494</v>
       </c>
       <c r="AB13" t="n">
-        <v>1655.796303644616</v>
+        <v>1795.599536538082</v>
       </c>
       <c r="AC13" t="n">
-        <v>1497.769428349481</v>
+        <v>1624.230036910664</v>
       </c>
       <c r="AD13" t="n">
-        <v>1210161.464032158</v>
+        <v>1312338.576411494</v>
       </c>
       <c r="AE13" t="n">
-        <v>1655796.303644616</v>
+        <v>1795599.536538082</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.404164491493735e-06</v>
+        <v>2.039084167393393e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.99869791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1497769.428349481</v>
+        <v>1624230.036910664</v>
       </c>
     </row>
     <row r="14">
@@ -52002,28 +52002,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1196.994320520372</v>
+        <v>1299.171432899709</v>
       </c>
       <c r="AB14" t="n">
-        <v>1637.780436998417</v>
+        <v>1777.583669891884</v>
       </c>
       <c r="AC14" t="n">
-        <v>1481.472970730568</v>
+        <v>1607.933579291752</v>
       </c>
       <c r="AD14" t="n">
-        <v>1196994.320520372</v>
+        <v>1299171.432899709</v>
       </c>
       <c r="AE14" t="n">
-        <v>1637780.436998417</v>
+        <v>1777583.669891884</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.409858204374024e-06</v>
+        <v>2.047352400822034e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.91080729166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1481472.970730568</v>
+        <v>1607933.579291752</v>
       </c>
     </row>
     <row r="15">
@@ -52108,28 +52108,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1183.110985137101</v>
+        <v>1285.288097516437</v>
       </c>
       <c r="AB15" t="n">
-        <v>1618.784645037496</v>
+        <v>1758.587877930961</v>
       </c>
       <c r="AC15" t="n">
-        <v>1464.290110493635</v>
+        <v>1590.750719054819</v>
       </c>
       <c r="AD15" t="n">
-        <v>1183110.985137101</v>
+        <v>1285288.097516437</v>
       </c>
       <c r="AE15" t="n">
-        <v>1618784.645037496</v>
+        <v>1758587.877930962</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.415836602898326e-06</v>
+        <v>2.056034045922107e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.81966145833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1464290.110493635</v>
+        <v>1590750.719054819</v>
       </c>
     </row>
     <row r="16">
@@ -52214,28 +52214,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1170.625343010257</v>
+        <v>1264.44415425803</v>
       </c>
       <c r="AB16" t="n">
-        <v>1601.701238651892</v>
+        <v>1730.068275194932</v>
       </c>
       <c r="AC16" t="n">
-        <v>1448.837120436762</v>
+        <v>1564.952987176401</v>
       </c>
       <c r="AD16" t="n">
-        <v>1170625.343010257</v>
+        <v>1264444.15425803</v>
       </c>
       <c r="AE16" t="n">
-        <v>1601701.238651892</v>
+        <v>1730068.275194932</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.420960944490586e-06</v>
+        <v>2.063475456007884e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.73828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1448837.120436762</v>
+        <v>1564952.987176401</v>
       </c>
     </row>
     <row r="17">
@@ -52320,28 +52320,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1157.483235327831</v>
+        <v>1251.302046575604</v>
       </c>
       <c r="AB17" t="n">
-        <v>1583.719627131926</v>
+        <v>1712.086663674965</v>
       </c>
       <c r="AC17" t="n">
-        <v>1432.571648682911</v>
+        <v>1548.687515422551</v>
       </c>
       <c r="AD17" t="n">
-        <v>1157483.235327831</v>
+        <v>1251302.046575604</v>
       </c>
       <c r="AE17" t="n">
-        <v>1583719.627131926</v>
+        <v>1712086.663674966</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.42580060043883e-06</v>
+        <v>2.070503454422229e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1432571.648682911</v>
+        <v>1548687.515422551</v>
       </c>
     </row>
     <row r="18">
@@ -52426,28 +52426,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1146.973287091575</v>
+        <v>1240.792098339348</v>
       </c>
       <c r="AB18" t="n">
-        <v>1569.339452288889</v>
+        <v>1697.706488831928</v>
       </c>
       <c r="AC18" t="n">
-        <v>1419.563897544191</v>
+        <v>1535.679764283831</v>
       </c>
       <c r="AD18" t="n">
-        <v>1146973.287091575</v>
+        <v>1240792.098339348</v>
       </c>
       <c r="AE18" t="n">
-        <v>1569339.452288889</v>
+        <v>1697706.488831928</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.428837247308318e-06</v>
+        <v>2.074913178917504e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.62109375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1419563.897544191</v>
+        <v>1535679.764283831</v>
       </c>
     </row>
     <row r="19">
@@ -52532,28 +52532,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1136.325166293733</v>
+        <v>1230.143977541505</v>
       </c>
       <c r="AB19" t="n">
-        <v>1554.770223651345</v>
+        <v>1683.137260194384</v>
       </c>
       <c r="AC19" t="n">
-        <v>1406.385135639774</v>
+        <v>1522.501002379413</v>
       </c>
       <c r="AD19" t="n">
-        <v>1136325.166293733</v>
+        <v>1230143.977541505</v>
       </c>
       <c r="AE19" t="n">
-        <v>1554770.223651345</v>
+        <v>1683137.260194384</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.432348370251162e-06</v>
+        <v>2.080011922865167e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.56575520833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1406385.135639774</v>
+        <v>1522501.002379413</v>
       </c>
     </row>
     <row r="20">
@@ -52638,28 +52638,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1125.536814567791</v>
+        <v>1219.355625815564</v>
       </c>
       <c r="AB20" t="n">
-        <v>1540.009124871424</v>
+        <v>1668.376161414464</v>
       </c>
       <c r="AC20" t="n">
-        <v>1393.032815410076</v>
+        <v>1509.148682149716</v>
       </c>
       <c r="AD20" t="n">
-        <v>1125536.814567791</v>
+        <v>1219355.625815564</v>
       </c>
       <c r="AE20" t="n">
-        <v>1540009.124871424</v>
+        <v>1668376.161414464</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.435005436261963e-06</v>
+        <v>2.083870431798532e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.52669270833333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1393032.815410076</v>
+        <v>1509148.682149715</v>
       </c>
     </row>
     <row r="21">
@@ -52744,28 +52744,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1112.495205257467</v>
+        <v>1206.143424304648</v>
       </c>
       <c r="AB21" t="n">
-        <v>1522.165019657843</v>
+        <v>1650.298644426035</v>
       </c>
       <c r="AC21" t="n">
-        <v>1376.89172655372</v>
+        <v>1492.796458010708</v>
       </c>
       <c r="AD21" t="n">
-        <v>1112495.205257467</v>
+        <v>1206143.424304648</v>
       </c>
       <c r="AE21" t="n">
-        <v>1522165.019657843</v>
+        <v>1650298.644426035</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.088280156293808e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.48111979166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1376891.72655372</v>
+        <v>1492796.458010708</v>
       </c>
     </row>
     <row r="22">
@@ -52850,28 +52850,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1111.198648391786</v>
+        <v>1204.846867438967</v>
       </c>
       <c r="AB22" t="n">
-        <v>1520.391013354167</v>
+        <v>1648.524638122359</v>
       </c>
       <c r="AC22" t="n">
-        <v>1375.287028921834</v>
+        <v>1491.191760378822</v>
       </c>
       <c r="AD22" t="n">
-        <v>1111198.648391786</v>
+        <v>1204846.867438967</v>
       </c>
       <c r="AE22" t="n">
-        <v>1520391.013354167</v>
+        <v>1648524.638122359</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.437662502272764e-06</v>
+        <v>2.087728940731898e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.48763020833333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1375287.028921833</v>
+        <v>1491191.760378822</v>
       </c>
     </row>
     <row r="23">
@@ -52956,28 +52956,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1114.546798489895</v>
+        <v>1208.195017537076</v>
       </c>
       <c r="AB23" t="n">
-        <v>1524.972100028356</v>
+        <v>1653.105724796549</v>
       </c>
       <c r="AC23" t="n">
-        <v>1379.430903113434</v>
+        <v>1495.335634570422</v>
       </c>
       <c r="AD23" t="n">
-        <v>1114546.798489895</v>
+        <v>1208195.017537076</v>
       </c>
       <c r="AE23" t="n">
-        <v>1524972.100028356</v>
+        <v>1653105.724796549</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.437472711843421e-06</v>
+        <v>2.087453332950944e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.48763020833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1379430.903113434</v>
+        <v>1495335.634570422</v>
       </c>
     </row>
   </sheetData>
@@ -53253,28 +53253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.5783392870678</v>
+        <v>625.8810555841806</v>
       </c>
       <c r="AB2" t="n">
-        <v>739.6431324457442</v>
+        <v>856.3580721736972</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.0526299807779</v>
+        <v>774.6284596715418</v>
       </c>
       <c r="AD2" t="n">
-        <v>540578.3392870678</v>
+        <v>625881.0555841805</v>
       </c>
       <c r="AE2" t="n">
-        <v>739643.1324457442</v>
+        <v>856358.0721736972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645266144797278e-06</v>
+        <v>2.742560639996651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.12434895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>669052.6299807779</v>
+        <v>774628.4596715418</v>
       </c>
     </row>
   </sheetData>
@@ -53550,28 +53550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1672.798464488136</v>
+        <v>1799.708527900598</v>
       </c>
       <c r="AB2" t="n">
-        <v>2288.796657772473</v>
+        <v>2462.440605410252</v>
       </c>
       <c r="AC2" t="n">
-        <v>2070.357117100953</v>
+        <v>2227.428730086993</v>
       </c>
       <c r="AD2" t="n">
-        <v>1672798.464488136</v>
+        <v>1799708.527900598</v>
       </c>
       <c r="AE2" t="n">
-        <v>2288796.657772473</v>
+        <v>2462440.605410252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088595289847302e-06</v>
+        <v>1.656740379993817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>2070357.117100952</v>
+        <v>2227428.730086993</v>
       </c>
     </row>
     <row r="3">
@@ -53656,28 +53656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1157.248867654078</v>
+        <v>1252.55944887242</v>
       </c>
       <c r="AB3" t="n">
-        <v>1583.398954941125</v>
+        <v>1713.807096970143</v>
       </c>
       <c r="AC3" t="n">
-        <v>1432.281580995934</v>
+        <v>1550.24375297868</v>
       </c>
       <c r="AD3" t="n">
-        <v>1157248.867654078</v>
+        <v>1252559.44887242</v>
       </c>
       <c r="AE3" t="n">
-        <v>1583398.954941125</v>
+        <v>1713807.096970143</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359698993943298e-06</v>
+        <v>2.069334902430833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.02278645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1432281.580995934</v>
+        <v>1550243.752978679</v>
       </c>
     </row>
     <row r="4">
@@ -53762,28 +53762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1021.270287638325</v>
+        <v>1116.410187147523</v>
       </c>
       <c r="AB4" t="n">
-        <v>1397.347062812006</v>
+        <v>1527.521670596629</v>
       </c>
       <c r="AC4" t="n">
-        <v>1263.986220326148</v>
+        <v>1381.737146245015</v>
       </c>
       <c r="AD4" t="n">
-        <v>1021270.287638325</v>
+        <v>1116410.187147523</v>
       </c>
       <c r="AE4" t="n">
-        <v>1397347.062812006</v>
+        <v>1527521.670596629</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.45658146645563e-06</v>
+        <v>2.216780978876135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.35611979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1263986.220326148</v>
+        <v>1381737.146245015</v>
       </c>
     </row>
     <row r="5">
@@ -53868,28 +53868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>954.3101071318678</v>
+        <v>1049.535257987087</v>
       </c>
       <c r="AB5" t="n">
-        <v>1305.729189768396</v>
+        <v>1436.020442205667</v>
       </c>
       <c r="AC5" t="n">
-        <v>1181.112228499327</v>
+        <v>1298.968666668907</v>
       </c>
       <c r="AD5" t="n">
-        <v>954310.1071318678</v>
+        <v>1049535.257987087</v>
       </c>
       <c r="AE5" t="n">
-        <v>1305729.189768396</v>
+        <v>1436020.442205667</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.50444788761059e-06</v>
+        <v>2.289629202189995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.61393229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1181112.228499327</v>
+        <v>1298968.666668907</v>
       </c>
     </row>
     <row r="6">
@@ -53974,28 +53974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>913.3771414790825</v>
+        <v>1000.659840867036</v>
       </c>
       <c r="AB6" t="n">
-        <v>1249.72290032726</v>
+        <v>1369.146940270791</v>
       </c>
       <c r="AC6" t="n">
-        <v>1130.451100717132</v>
+        <v>1238.477477901145</v>
       </c>
       <c r="AD6" t="n">
-        <v>913377.1414790825</v>
+        <v>1000659.840867036</v>
       </c>
       <c r="AE6" t="n">
-        <v>1249722.90032726</v>
+        <v>1369146.940270791</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.534338272873294e-06</v>
+        <v>2.335119577447122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.17447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1130451.100717132</v>
+        <v>1238477.477901145</v>
       </c>
     </row>
     <row r="7">
@@ -54080,28 +54080,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.6663123954033</v>
+        <v>969.8061223960505</v>
       </c>
       <c r="AB7" t="n">
-        <v>1196.757036173721</v>
+        <v>1326.931521488796</v>
       </c>
       <c r="AC7" t="n">
-        <v>1082.54022430035</v>
+        <v>1200.291039437991</v>
       </c>
       <c r="AD7" t="n">
-        <v>874666.3123954034</v>
+        <v>969806.1223960505</v>
       </c>
       <c r="AE7" t="n">
-        <v>1196757.036173721</v>
+        <v>1326931.521488796</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.553568450804545e-06</v>
+        <v>2.364386112577581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.89778645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1082540.22430035</v>
+        <v>1200291.039437991</v>
       </c>
     </row>
     <row r="8">
@@ -54186,28 +54186,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>847.0989883653789</v>
+        <v>934.4669390993535</v>
       </c>
       <c r="AB8" t="n">
-        <v>1159.03820725134</v>
+        <v>1278.57889184752</v>
       </c>
       <c r="AC8" t="n">
-        <v>1048.421227471612</v>
+        <v>1156.553116906337</v>
       </c>
       <c r="AD8" t="n">
-        <v>847098.9883653789</v>
+        <v>934466.9390993535</v>
       </c>
       <c r="AE8" t="n">
-        <v>1159038.20725134</v>
+        <v>1278578.89184752</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.568827178945646e-06</v>
+        <v>2.387608471974576e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.68619791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1048421.227471612</v>
+        <v>1156553.116906337</v>
       </c>
     </row>
     <row r="9">
@@ -54292,28 +54292,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>847.6728115286154</v>
+        <v>935.04076226259</v>
       </c>
       <c r="AB9" t="n">
-        <v>1159.823337418571</v>
+        <v>1279.364022014752</v>
       </c>
       <c r="AC9" t="n">
-        <v>1049.13142591762</v>
+        <v>1157.263315352345</v>
       </c>
       <c r="AD9" t="n">
-        <v>847672.8115286154</v>
+        <v>935040.76226259</v>
       </c>
       <c r="AE9" t="n">
-        <v>1159823.337418571</v>
+        <v>1279364.022014752</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.569245226291977e-06</v>
+        <v>2.388244700999151e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.6796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1049131.42591762</v>
+        <v>1157263.315352345</v>
       </c>
     </row>
   </sheetData>
@@ -54589,28 +54589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2260.164626265941</v>
+        <v>2406.986014819911</v>
       </c>
       <c r="AB2" t="n">
-        <v>3092.45695308327</v>
+        <v>3293.34445420534</v>
       </c>
       <c r="AC2" t="n">
-        <v>2797.317201771479</v>
+        <v>2979.03228173383</v>
       </c>
       <c r="AD2" t="n">
-        <v>2260164.626265941</v>
+        <v>2406986.014819911</v>
       </c>
       <c r="AE2" t="n">
-        <v>3092456.95308327</v>
+        <v>3293344.45420534</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.324686806737276e-07</v>
+        <v>1.39209246521779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.126953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2797317.201771479</v>
+        <v>2979032.28173383</v>
       </c>
     </row>
     <row r="3">
@@ -54695,28 +54695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1421.78320981711</v>
+        <v>1535.854372904383</v>
       </c>
       <c r="AB3" t="n">
-        <v>1945.346512320104</v>
+        <v>2101.423710120652</v>
       </c>
       <c r="AC3" t="n">
-        <v>1759.68537149525</v>
+        <v>1900.866780593437</v>
       </c>
       <c r="AD3" t="n">
-        <v>1421783.20981711</v>
+        <v>1535854.372904383</v>
       </c>
       <c r="AE3" t="n">
-        <v>1945346.512320104</v>
+        <v>2101423.710120652</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237857959387957e-06</v>
+        <v>1.84801138524973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.46158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1759685.37149525</v>
+        <v>1900866.780593437</v>
       </c>
     </row>
     <row r="4">
@@ -54801,28 +54801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1234.743034557061</v>
+        <v>1332.652437047415</v>
       </c>
       <c r="AB4" t="n">
-        <v>1689.429892899144</v>
+        <v>1823.393856844431</v>
       </c>
       <c r="AC4" t="n">
-        <v>1528.193075050596</v>
+        <v>1649.371706296549</v>
       </c>
       <c r="AD4" t="n">
-        <v>1234743.034557062</v>
+        <v>1332652.437047415</v>
       </c>
       <c r="AE4" t="n">
-        <v>1689429.892899144</v>
+        <v>1823393.856844431</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348542706203658e-06</v>
+        <v>2.013253827435936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.29036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1528193.075050596</v>
+        <v>1649371.706296549</v>
       </c>
     </row>
     <row r="5">
@@ -54907,28 +54907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1148.09282051679</v>
+        <v>1245.916882152572</v>
       </c>
       <c r="AB5" t="n">
-        <v>1570.871247311596</v>
+        <v>1704.718444134685</v>
       </c>
       <c r="AC5" t="n">
-        <v>1420.949500199819</v>
+        <v>1542.022508413834</v>
       </c>
       <c r="AD5" t="n">
-        <v>1148092.82051679</v>
+        <v>1245916.882152572</v>
       </c>
       <c r="AE5" t="n">
-        <v>1570871.247311596</v>
+        <v>1704718.444134685</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405092549576771e-06</v>
+        <v>2.097677693352888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.310546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1420949.500199819</v>
+        <v>1542022.508413834</v>
       </c>
     </row>
     <row r="6">
@@ -55013,28 +55013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1088.905319309062</v>
+        <v>1186.814632290865</v>
       </c>
       <c r="AB6" t="n">
-        <v>1489.888296990917</v>
+        <v>1623.852138466656</v>
       </c>
       <c r="AC6" t="n">
-        <v>1347.695448997461</v>
+        <v>1468.873969462188</v>
       </c>
       <c r="AD6" t="n">
-        <v>1088905.319309062</v>
+        <v>1186814.632290865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1489888.296990917</v>
+        <v>1623852.138466656</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.442121628511478e-06</v>
+        <v>2.152958801284273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.71158854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1347695.448997461</v>
+        <v>1468873.969462188</v>
       </c>
     </row>
     <row r="7">
@@ -55119,28 +55119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1053.777992142916</v>
+        <v>1143.521173480238</v>
       </c>
       <c r="AB7" t="n">
-        <v>1441.825538253894</v>
+        <v>1564.616118149353</v>
       </c>
       <c r="AC7" t="n">
-        <v>1304.219732497794</v>
+        <v>1415.291351785692</v>
       </c>
       <c r="AD7" t="n">
-        <v>1053777.992142916</v>
+        <v>1143521.173480238</v>
       </c>
       <c r="AE7" t="n">
-        <v>1441825.538253894</v>
+        <v>1564616.118149353</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465667292834091e-06</v>
+        <v>2.188110375349339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.34700520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1304219.732497794</v>
+        <v>1415291.351785692</v>
       </c>
     </row>
     <row r="8">
@@ -55225,28 +55225,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1026.85737340618</v>
+        <v>1116.600554743502</v>
       </c>
       <c r="AB8" t="n">
-        <v>1404.991560044413</v>
+        <v>1527.782139939873</v>
       </c>
       <c r="AC8" t="n">
-        <v>1270.901137471813</v>
+        <v>1381.972756759711</v>
       </c>
       <c r="AD8" t="n">
-        <v>1026857.37340618</v>
+        <v>1116600.554743502</v>
       </c>
       <c r="AE8" t="n">
-        <v>1404991.560044413</v>
+        <v>1527782.139939873</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.482068759862236e-06</v>
+        <v>2.212596300873295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.10286458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1270901.137471813</v>
+        <v>1381972.756759711</v>
       </c>
     </row>
     <row r="9">
@@ -55331,28 +55331,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>993.9711449445857</v>
+        <v>1091.795117071817</v>
       </c>
       <c r="AB9" t="n">
-        <v>1359.995171425256</v>
+        <v>1493.842245778797</v>
       </c>
       <c r="AC9" t="n">
-        <v>1230.19914102964</v>
+        <v>1351.272038462428</v>
       </c>
       <c r="AD9" t="n">
-        <v>993971.1449445857</v>
+        <v>1091795.117071817</v>
       </c>
       <c r="AE9" t="n">
-        <v>1359995.171425256</v>
+        <v>1493842.245778797</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.49575341946854e-06</v>
+        <v>2.23302627554359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.89778645833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1230199.14102964</v>
+        <v>1351272.038462428</v>
       </c>
     </row>
     <row r="10">
@@ -55437,28 +55437,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>973.1216215324532</v>
+        <v>1062.950054215796</v>
       </c>
       <c r="AB10" t="n">
-        <v>1331.46793367672</v>
+        <v>1454.375158224829</v>
       </c>
       <c r="AC10" t="n">
-        <v>1204.394502813595</v>
+        <v>1315.571634352206</v>
       </c>
       <c r="AD10" t="n">
-        <v>973121.6215324532</v>
+        <v>1062950.054215796</v>
       </c>
       <c r="AE10" t="n">
-        <v>1331467.93367672</v>
+        <v>1454375.158224829</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.505513801687743e-06</v>
+        <v>2.247597654536373e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.75455729166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1204394.502813595</v>
+        <v>1315571.634352206</v>
       </c>
     </row>
     <row r="11">
@@ -55543,28 +55543,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>952.9468488589556</v>
+        <v>1042.775281542299</v>
       </c>
       <c r="AB11" t="n">
-        <v>1303.863919656687</v>
+        <v>1426.771144204796</v>
       </c>
       <c r="AC11" t="n">
-        <v>1179.424977149157</v>
+        <v>1290.602108687767</v>
       </c>
       <c r="AD11" t="n">
-        <v>952946.8488589555</v>
+        <v>1042775.281542299</v>
       </c>
       <c r="AE11" t="n">
-        <v>1303863.919656687</v>
+        <v>1426771.144204796</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514670448924315e-06</v>
+        <v>2.261267711117232e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.62434895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1179424.977149157</v>
+        <v>1290602.108687767</v>
       </c>
     </row>
     <row r="12">
@@ -55649,28 +55649,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>939.1461495296119</v>
+        <v>1028.974582212955</v>
       </c>
       <c r="AB12" t="n">
-        <v>1284.981193990395</v>
+        <v>1407.888418538503</v>
       </c>
       <c r="AC12" t="n">
-        <v>1162.344392318384</v>
+        <v>1273.521523856994</v>
       </c>
       <c r="AD12" t="n">
-        <v>939146.1495296119</v>
+        <v>1028974.582212955</v>
       </c>
       <c r="AE12" t="n">
-        <v>1284981.193990395</v>
+        <v>1407888.418538503</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>2.268628510814617e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.55598958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1162344.392318384</v>
+        <v>1273521.523856994</v>
       </c>
     </row>
     <row r="13">
@@ -55755,28 +55755,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>940.8797827489401</v>
+        <v>1030.708215432283</v>
       </c>
       <c r="AB13" t="n">
-        <v>1287.353227443579</v>
+        <v>1410.260451991688</v>
       </c>
       <c r="AC13" t="n">
-        <v>1164.490042227966</v>
+        <v>1275.667173766576</v>
       </c>
       <c r="AD13" t="n">
-        <v>940879.7827489401</v>
+        <v>1030708.215432283</v>
       </c>
       <c r="AE13" t="n">
-        <v>1287353.227443579</v>
+        <v>1410260.451991688</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.518795971305627e-06</v>
+        <v>2.267426747598718e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.56575520833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1164490.042227966</v>
+        <v>1275667.173766576</v>
       </c>
     </row>
   </sheetData>
